--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{B2846645-C079-404D-A431-14CA584EB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA65C0FF-25BF-4AE7-B8AA-5813CCC966F5}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{B2846645-C079-404D-A431-14CA584EB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E502AB67-13B5-492D-AD04-50CCEA502352}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <r>
       <t>Projet :</t>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t xml:space="preserve">Faire le cahier des Charges et le businessCase </t>
+  </si>
+  <si>
+    <t>Faire la BD</t>
+  </si>
+  <si>
+    <t>Connexion RFID</t>
+  </si>
+  <si>
+    <t>Commencement Backend</t>
   </si>
 </sst>
 </file>
@@ -735,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -880,6 +889,90 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -892,98 +985,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0E09CA26-D57B-4FEF-A8F4-4CB706A0B1E1}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1025,16 +1042,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>222249</xdr:rowOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>227233</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>231855</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1049,8 +1066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16243300" y="222249"/>
-          <a:ext cx="1285875" cy="4949825"/>
+          <a:off x="17167265" y="800983"/>
+          <a:ext cx="1234432" cy="5259930"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1461,30 +1478,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE22" sqref="AE22"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:AQ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.1796875" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.1796875" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.1796875" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.54296875" style="3"/>
+    <col min="1" max="1" width="40.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1526,12 +1543,12 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1573,7 +1590,7 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
@@ -1620,12 +1637,12 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1669,182 +1686,182 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:84" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="47"/>
-      <c r="CE5" s="47"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="BX5" s="59"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="59"/>
+      <c r="CB5" s="59"/>
+      <c r="CC5" s="59"/>
+      <c r="CD5" s="59"/>
+      <c r="CE5" s="59"/>
     </row>
-    <row r="6" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="48"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="48"/>
-      <c r="BV6" s="48"/>
-      <c r="BW6" s="48"/>
-      <c r="BX6" s="48"/>
-      <c r="BY6" s="48"/>
-      <c r="BZ6" s="48"/>
-      <c r="CA6" s="48"/>
-      <c r="CB6" s="48"/>
-      <c r="CC6" s="48"/>
-      <c r="CD6" s="48"/>
-      <c r="CE6" s="48"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
+      <c r="BC6" s="60"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="60"/>
+      <c r="BF6" s="60"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
+      <c r="BI6" s="60"/>
+      <c r="BJ6" s="60"/>
+      <c r="BK6" s="60"/>
+      <c r="BL6" s="60"/>
+      <c r="BM6" s="60"/>
+      <c r="BN6" s="60"/>
+      <c r="BO6" s="60"/>
+      <c r="BP6" s="60"/>
+      <c r="BQ6" s="60"/>
+      <c r="BR6" s="60"/>
+      <c r="BS6" s="60"/>
+      <c r="BT6" s="60"/>
+      <c r="BU6" s="60"/>
+      <c r="BV6" s="60"/>
+      <c r="BW6" s="60"/>
+      <c r="BX6" s="60"/>
+      <c r="BY6" s="60"/>
+      <c r="BZ6" s="60"/>
+      <c r="CA6" s="60"/>
+      <c r="CB6" s="60"/>
+      <c r="CC6" s="60"/>
+      <c r="CD6" s="60"/>
+      <c r="CE6" s="60"/>
     </row>
-    <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -1853,132 +1870,132 @@
       <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="43">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56">
         <v>45992</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="43">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56">
         <v>45993</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45" t="s">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="43">
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56">
         <v>45999</v>
       </c>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45" t="s">
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="43">
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56">
         <v>46000</v>
       </c>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="45" t="s">
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="43">
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="56">
         <v>46006</v>
       </c>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="45" t="s">
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="43">
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
+      <c r="AU7" s="55"/>
+      <c r="AV7" s="56">
         <v>46007</v>
       </c>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="45" t="s">
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="43">
+      <c r="BA7" s="55"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+      <c r="BD7" s="56">
         <v>46027</v>
       </c>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="45" t="s">
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BI7" s="46"/>
-      <c r="BJ7" s="46"/>
-      <c r="BK7" s="46"/>
-      <c r="BL7" s="43">
+      <c r="BI7" s="55"/>
+      <c r="BJ7" s="55"/>
+      <c r="BK7" s="55"/>
+      <c r="BL7" s="56">
         <v>46028</v>
       </c>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="44"/>
-      <c r="BP7" s="45" t="s">
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="BQ7" s="46"/>
-      <c r="BR7" s="46"/>
-      <c r="BS7" s="46"/>
-      <c r="BT7" s="43">
+      <c r="BQ7" s="55"/>
+      <c r="BR7" s="55"/>
+      <c r="BS7" s="55"/>
+      <c r="BT7" s="56">
         <v>46034</v>
       </c>
-      <c r="BU7" s="43"/>
-      <c r="BV7" s="43"/>
-      <c r="BW7" s="44"/>
-      <c r="BX7" s="45" t="s">
+      <c r="BU7" s="56"/>
+      <c r="BV7" s="56"/>
+      <c r="BW7" s="57"/>
+      <c r="BX7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="46"/>
-      <c r="CA7" s="46"/>
-      <c r="CB7" s="43">
+      <c r="BY7" s="55"/>
+      <c r="BZ7" s="55"/>
+      <c r="CA7" s="55"/>
+      <c r="CB7" s="56">
         <v>46035</v>
       </c>
-      <c r="CC7" s="43"/>
-      <c r="CD7" s="43"/>
-      <c r="CE7" s="44"/>
-      <c r="CF7" s="52" t="s">
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="57"/>
+      <c r="CF7" s="42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
       <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
@@ -2225,18 +2242,18 @@
       <c r="CE8" s="7">
         <v>8</v>
       </c>
-      <c r="CF8" s="52"/>
+      <c r="CF8" s="42"/>
     </row>
-    <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2249,16 +2266,16 @@
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
-      <c r="T9" s="55" t="s">
+      <c r="T9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="47"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
@@ -2315,9 +2332,9 @@
       <c r="CC9" s="35"/>
       <c r="CD9" s="35"/>
       <c r="CE9" s="35"/>
-      <c r="CF9" s="52"/>
+      <c r="CF9" s="42"/>
     </row>
-    <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>25</v>
       </c>
@@ -2327,10 +2344,10 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -2339,14 +2356,14 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="50"/>
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="35"/>
@@ -2403,9 +2420,9 @@
       <c r="CC10" s="35"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
-      <c r="CF10" s="52"/>
+      <c r="CF10" s="42"/>
     </row>
-    <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>24</v>
       </c>
@@ -2427,14 +2444,14 @@
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
@@ -2491,9 +2508,9 @@
       <c r="CC11" s="35"/>
       <c r="CD11" s="35"/>
       <c r="CE11" s="35"/>
-      <c r="CF11" s="52"/>
+      <c r="CF11" s="42"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -2515,15 +2532,15 @@
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="35"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="33"/>
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
       <c r="AE12" s="35"/>
@@ -2579,9 +2596,9 @@
       <c r="CC12" s="35"/>
       <c r="CD12" s="35"/>
       <c r="CE12" s="35"/>
-      <c r="CF12" s="52"/>
+      <c r="CF12" s="42"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -2603,15 +2620,15 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="35"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="65"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
@@ -2667,9 +2684,9 @@
       <c r="CC13" s="35"/>
       <c r="CD13" s="35"/>
       <c r="CE13" s="35"/>
-      <c r="CF13" s="52"/>
+      <c r="CF13" s="42"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -2691,15 +2708,15 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="35"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="39"/>
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
@@ -2755,9 +2772,9 @@
       <c r="CC14" s="35"/>
       <c r="CD14" s="35"/>
       <c r="CE14" s="35"/>
-      <c r="CF14" s="52"/>
+      <c r="CF14" s="42"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
@@ -2773,20 +2790,20 @@
       <c r="K15" s="16"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
-      <c r="N15" s="64"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="60"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="50"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
@@ -2843,9 +2860,9 @@
       <c r="CC15" s="35"/>
       <c r="CD15" s="35"/>
       <c r="CE15" s="35"/>
-      <c r="CF15" s="52"/>
+      <c r="CF15" s="42"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -2862,19 +2879,19 @@
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
-      <c r="O16" s="64"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="60"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="50"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
@@ -2931,10 +2948,12 @@
       <c r="CC16" s="35"/>
       <c r="CD16" s="35"/>
       <c r="CE16" s="35"/>
-      <c r="CF16" s="52"/>
+      <c r="CF16" s="42"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="23"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -2953,17 +2972,17 @@
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="60"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="50"/>
       <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
       <c r="AE17" s="35"/>
       <c r="AF17" s="35"/>
       <c r="AG17" s="35"/>
@@ -3017,10 +3036,12 @@
       <c r="CC17" s="35"/>
       <c r="CD17" s="35"/>
       <c r="CE17" s="35"/>
-      <c r="CF17" s="52"/>
+      <c r="CF17" s="42"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="23"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -3039,18 +3060,18 @@
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="60"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="50"/>
       <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
       <c r="AF18" s="35"/>
       <c r="AG18" s="35"/>
       <c r="AH18" s="35"/>
@@ -3103,10 +3124,12 @@
       <c r="CC18" s="35"/>
       <c r="CD18" s="35"/>
       <c r="CE18" s="35"/>
-      <c r="CF18" s="52"/>
+      <c r="CF18" s="42"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B19" s="23"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -3125,19 +3148,19 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
       <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
+      <c r="AF19" s="66"/>
       <c r="AG19" s="35"/>
       <c r="AH19" s="35"/>
       <c r="AI19" s="35"/>
@@ -3189,9 +3212,9 @@
       <c r="CC19" s="35"/>
       <c r="CD19" s="35"/>
       <c r="CE19" s="35"/>
-      <c r="CF19" s="52"/>
+      <c r="CF19" s="42"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="23"/>
       <c r="C20" s="13"/>
@@ -3211,14 +3234,14 @@
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="60"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="50"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -3275,9 +3298,9 @@
       <c r="CC20" s="35"/>
       <c r="CD20" s="35"/>
       <c r="CE20" s="35"/>
-      <c r="CF20" s="52"/>
+      <c r="CF20" s="42"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="23"/>
       <c r="C21" s="13"/>
@@ -3297,14 +3320,14 @@
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="60"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="50"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -3361,9 +3384,9 @@
       <c r="CC21" s="35"/>
       <c r="CD21" s="35"/>
       <c r="CE21" s="35"/>
-      <c r="CF21" s="52"/>
+      <c r="CF21" s="42"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="23"/>
       <c r="C22" s="13"/>
@@ -3383,14 +3406,14 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="60"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="50"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -3447,9 +3470,9 @@
       <c r="CC22" s="35"/>
       <c r="CD22" s="35"/>
       <c r="CE22" s="35"/>
-      <c r="CF22" s="52"/>
+      <c r="CF22" s="42"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="23"/>
       <c r="C23" s="13"/>
@@ -3469,14 +3492,14 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="60"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="50"/>
       <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
       <c r="AD23" s="35"/>
@@ -3533,9 +3556,9 @@
       <c r="CC23" s="35"/>
       <c r="CD23" s="35"/>
       <c r="CE23" s="35"/>
-      <c r="CF23" s="52"/>
+      <c r="CF23" s="42"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="23"/>
       <c r="C24" s="13"/>
@@ -3555,14 +3578,14 @@
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="60"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="50"/>
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
       <c r="AD24" s="35"/>
@@ -3619,9 +3642,9 @@
       <c r="CC24" s="35"/>
       <c r="CD24" s="35"/>
       <c r="CE24" s="35"/>
-      <c r="CF24" s="52"/>
+      <c r="CF24" s="42"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="23"/>
       <c r="C25" s="13"/>
@@ -3641,14 +3664,14 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="60"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="50"/>
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
@@ -3705,9 +3728,9 @@
       <c r="CC25" s="35"/>
       <c r="CD25" s="35"/>
       <c r="CE25" s="35"/>
-      <c r="CF25" s="52"/>
+      <c r="CF25" s="42"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="23"/>
       <c r="C26" s="13"/>
@@ -3727,14 +3750,14 @@
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="60"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="50"/>
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
       <c r="AD26" s="35"/>
@@ -3791,9 +3814,9 @@
       <c r="CC26" s="35"/>
       <c r="CD26" s="35"/>
       <c r="CE26" s="35"/>
-      <c r="CF26" s="52"/>
+      <c r="CF26" s="42"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="23"/>
       <c r="C27" s="13"/>
@@ -3813,14 +3836,14 @@
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="60"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="50"/>
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
@@ -3877,9 +3900,9 @@
       <c r="CC27" s="35"/>
       <c r="CD27" s="35"/>
       <c r="CE27" s="35"/>
-      <c r="CF27" s="52"/>
+      <c r="CF27" s="42"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="23"/>
       <c r="C28" s="13"/>
@@ -3899,14 +3922,14 @@
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="60"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="50"/>
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
       <c r="AD28" s="35"/>
@@ -3963,9 +3986,9 @@
       <c r="CC28" s="35"/>
       <c r="CD28" s="35"/>
       <c r="CE28" s="35"/>
-      <c r="CF28" s="52"/>
+      <c r="CF28" s="42"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="23"/>
       <c r="C29" s="13"/>
@@ -3985,14 +4008,14 @@
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="60"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="50"/>
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
       <c r="AD29" s="35"/>
@@ -4049,9 +4072,9 @@
       <c r="CC29" s="35"/>
       <c r="CD29" s="35"/>
       <c r="CE29" s="35"/>
-      <c r="CF29" s="52"/>
+      <c r="CF29" s="42"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="23"/>
       <c r="C30" s="13"/>
@@ -4071,14 +4094,14 @@
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="60"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="50"/>
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
       <c r="AD30" s="35"/>
@@ -4135,9 +4158,9 @@
       <c r="CC30" s="35"/>
       <c r="CD30" s="35"/>
       <c r="CE30" s="35"/>
-      <c r="CF30" s="52"/>
+      <c r="CF30" s="42"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="23"/>
       <c r="C31" s="13"/>
@@ -4157,14 +4180,14 @@
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="60"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="50"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
       <c r="AD31" s="35"/>
@@ -4221,9 +4244,9 @@
       <c r="CC31" s="35"/>
       <c r="CD31" s="35"/>
       <c r="CE31" s="35"/>
-      <c r="CF31" s="52"/>
+      <c r="CF31" s="42"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="23"/>
       <c r="C32" s="13"/>
@@ -4243,14 +4266,14 @@
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="60"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="50"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
       <c r="AD32" s="35"/>
@@ -4307,9 +4330,9 @@
       <c r="CC32" s="35"/>
       <c r="CD32" s="35"/>
       <c r="CE32" s="35"/>
-      <c r="CF32" s="52"/>
+      <c r="CF32" s="42"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="23"/>
       <c r="C33" s="13"/>
@@ -4329,14 +4352,14 @@
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="60"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="50"/>
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
       <c r="AD33" s="35"/>
@@ -4393,9 +4416,9 @@
       <c r="CC33" s="35"/>
       <c r="CD33" s="35"/>
       <c r="CE33" s="35"/>
-      <c r="CF33" s="52"/>
+      <c r="CF33" s="42"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="23"/>
       <c r="C34" s="13"/>
@@ -4415,14 +4438,14 @@
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="60"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="50"/>
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="35"/>
@@ -4479,9 +4502,9 @@
       <c r="CC34" s="35"/>
       <c r="CD34" s="35"/>
       <c r="CE34" s="35"/>
-      <c r="CF34" s="52"/>
+      <c r="CF34" s="42"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="23"/>
       <c r="C35" s="13"/>
@@ -4501,14 +4524,14 @@
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="60"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="50"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
@@ -4565,9 +4588,9 @@
       <c r="CC35" s="35"/>
       <c r="CD35" s="35"/>
       <c r="CE35" s="35"/>
-      <c r="CF35" s="52"/>
+      <c r="CF35" s="42"/>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="23"/>
       <c r="C36" s="13"/>
@@ -4587,14 +4610,14 @@
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="60"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="50"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
       <c r="AD36" s="35"/>
@@ -4651,9 +4674,9 @@
       <c r="CC36" s="35"/>
       <c r="CD36" s="35"/>
       <c r="CE36" s="35"/>
-      <c r="CF36" s="52"/>
+      <c r="CF36" s="42"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="23"/>
       <c r="C37" s="13"/>
@@ -4673,14 +4696,14 @@
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="60"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="50"/>
       <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
@@ -4737,9 +4760,9 @@
       <c r="CC37" s="35"/>
       <c r="CD37" s="35"/>
       <c r="CE37" s="35"/>
-      <c r="CF37" s="52"/>
+      <c r="CF37" s="42"/>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
       <c r="B38" s="23"/>
       <c r="C38" s="13"/>
@@ -4759,14 +4782,14 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="60"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="50"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -4823,9 +4846,9 @@
       <c r="CC38" s="35"/>
       <c r="CD38" s="35"/>
       <c r="CE38" s="35"/>
-      <c r="CF38" s="52"/>
+      <c r="CF38" s="42"/>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="23"/>
       <c r="C39" s="13"/>
@@ -4845,14 +4868,14 @@
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="60"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="50"/>
       <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
       <c r="AD39" s="35"/>
@@ -4909,9 +4932,9 @@
       <c r="CC39" s="35"/>
       <c r="CD39" s="35"/>
       <c r="CE39" s="35"/>
-      <c r="CF39" s="52"/>
+      <c r="CF39" s="42"/>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="23"/>
       <c r="C40" s="13"/>
@@ -4931,14 +4954,14 @@
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="60"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="50"/>
       <c r="AB40" s="35"/>
       <c r="AC40" s="35"/>
       <c r="AD40" s="35"/>
@@ -4995,9 +5018,9 @@
       <c r="CC40" s="35"/>
       <c r="CD40" s="35"/>
       <c r="CE40" s="35"/>
-      <c r="CF40" s="52"/>
+      <c r="CF40" s="42"/>
     </row>
-    <row r="41" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="24"/>
       <c r="C41" s="18"/>
@@ -5017,14 +5040,14 @@
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
-      <c r="T41" s="61"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="63"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="53"/>
       <c r="AB41" s="19"/>
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
@@ -5081,109 +5104,105 @@
       <c r="CC41" s="20"/>
       <c r="CD41" s="20"/>
       <c r="CE41" s="21"/>
-      <c r="CF41" s="52"/>
+      <c r="CF41" s="42"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51"/>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51"/>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51"/>
-      <c r="AB42" s="51"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="51"/>
-      <c r="AE42" s="51"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="51"/>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51"/>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51"/>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51"/>
-      <c r="AN42" s="51"/>
-      <c r="AO42" s="51"/>
-      <c r="AP42" s="51"/>
-      <c r="AQ42" s="51"/>
-      <c r="AR42" s="51"/>
-      <c r="AS42" s="51"/>
-      <c r="AT42" s="51"/>
-      <c r="AU42" s="51"/>
-      <c r="AV42" s="51"/>
-      <c r="AW42" s="51"/>
-      <c r="AX42" s="51"/>
-      <c r="AY42" s="51"/>
-      <c r="AZ42" s="51"/>
-      <c r="BA42" s="51"/>
-      <c r="BB42" s="51"/>
-      <c r="BC42" s="51"/>
-      <c r="BD42" s="51"/>
-      <c r="BE42" s="51"/>
-      <c r="BF42" s="51"/>
-      <c r="BG42" s="51"/>
-      <c r="BH42" s="51"/>
-      <c r="BI42" s="51"/>
-      <c r="BJ42" s="51"/>
-      <c r="BK42" s="51"/>
-      <c r="BL42" s="51"/>
-      <c r="BM42" s="51"/>
-      <c r="BN42" s="51"/>
-      <c r="BO42" s="51"/>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="51"/>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="51"/>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="51"/>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="51"/>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="51"/>
-      <c r="BZ42" s="51"/>
-      <c r="CA42" s="51"/>
-      <c r="CB42" s="51"/>
-      <c r="CC42" s="51"/>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="51"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="41"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="41"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="41"/>
+      <c r="AX42" s="41"/>
+      <c r="AY42" s="41"/>
+      <c r="AZ42" s="41"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="41"/>
+      <c r="BC42" s="41"/>
+      <c r="BD42" s="41"/>
+      <c r="BE42" s="41"/>
+      <c r="BF42" s="41"/>
+      <c r="BG42" s="41"/>
+      <c r="BH42" s="41"/>
+      <c r="BI42" s="41"/>
+      <c r="BJ42" s="41"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="41"/>
+      <c r="BM42" s="41"/>
+      <c r="BN42" s="41"/>
+      <c r="BO42" s="41"/>
+      <c r="BP42" s="41"/>
+      <c r="BQ42" s="41"/>
+      <c r="BR42" s="41"/>
+      <c r="BS42" s="41"/>
+      <c r="BT42" s="41"/>
+      <c r="BU42" s="41"/>
+      <c r="BV42" s="41"/>
+      <c r="BW42" s="41"/>
+      <c r="BX42" s="41"/>
+      <c r="BY42" s="41"/>
+      <c r="BZ42" s="41"/>
+      <c r="CA42" s="41"/>
+      <c r="CB42" s="41"/>
+      <c r="CC42" s="41"/>
+      <c r="CD42" s="41"/>
+      <c r="CE42" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A42:CE42"/>
-    <mergeCell ref="CF7:CF41"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="T9:AA41"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D5:AQ6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="AR5:CE6"/>
     <mergeCell ref="AJ7:AM7"/>
     <mergeCell ref="AN7:AQ7"/>
@@ -5198,14 +5217,18 @@
     <mergeCell ref="BP7:BS7"/>
     <mergeCell ref="BX7:CA7"/>
     <mergeCell ref="CB7:CE7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D5:AQ6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A42:CE42"/>
+    <mergeCell ref="CF7:CF41"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="T9:AA41"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B9:B41">
@@ -5234,26 +5257,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5466,32 +5469,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5508,4 +5506,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{B2846645-C079-404D-A431-14CA584EB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E502AB67-13B5-492D-AD04-50CCEA502352}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{B2846645-C079-404D-A431-14CA584EB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94973054-B48D-4922-9087-EAFE865DA1D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <r>
       <t>Projet :</t>
@@ -146,19 +146,10 @@
     <t>heures &gt;</t>
   </si>
   <si>
-    <t>Choisir le projet + Activités de groupe</t>
-  </si>
-  <si>
     <t>Férié</t>
   </si>
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
-  </si>
-  <si>
-    <t>UML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning </t>
   </si>
   <si>
     <t>Elouan Tercier + Emma Morales</t>
@@ -167,28 +158,34 @@
     <t xml:space="preserve">Noé Bersier + Emma Morales </t>
   </si>
   <si>
-    <t>Début  de documentation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entretien avec le client </t>
   </si>
   <si>
     <t>Discussion de groupe</t>
   </si>
   <si>
-    <t>Finir le businessCase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire le cahier des Charges et le businessCase </t>
-  </si>
-  <si>
-    <t>Faire la BD</t>
-  </si>
-  <si>
     <t>Connexion RFID</t>
   </si>
   <si>
-    <t>Commencement Backend</t>
+    <t>Réaliser le businessCase</t>
+  </si>
+  <si>
+    <t>Analyser le projet</t>
+  </si>
+  <si>
+    <t>Réaliser le cahier de charges</t>
+  </si>
+  <si>
+    <t>Réaliser le diagramme UseCase</t>
+  </si>
+  <si>
+    <t>Réaliser le planning</t>
+  </si>
+  <si>
+    <t>Réaliser la documentation</t>
+  </si>
+  <si>
+    <t>Réalisation de la base de données</t>
   </si>
 </sst>
 </file>
@@ -198,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -287,6 +284,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -744,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -893,6 +896,58 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -945,55 +1000,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1126,6 +1137,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1478,11 +1493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:AQ6"/>
+      <selection pane="bottomRight" activeCell="CE4" sqref="CE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1497,11 +1512,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1547,8 +1562,8 @@
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1641,10 +1656,10 @@
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1690,178 +1705,180 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="59"/>
-      <c r="CB5" s="59"/>
-      <c r="CC5" s="59"/>
-      <c r="CD5" s="59"/>
-      <c r="CE5" s="59"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="50">
+        <v>0</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="50"/>
+      <c r="CA5" s="50"/>
+      <c r="CB5" s="50"/>
+      <c r="CC5" s="50"/>
+      <c r="CD5" s="50"/>
+      <c r="CE5" s="50"/>
     </row>
     <row r="6" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="60"/>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="60"/>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="60"/>
-      <c r="BN6" s="60"/>
-      <c r="BO6" s="60"/>
-      <c r="BP6" s="60"/>
-      <c r="BQ6" s="60"/>
-      <c r="BR6" s="60"/>
-      <c r="BS6" s="60"/>
-      <c r="BT6" s="60"/>
-      <c r="BU6" s="60"/>
-      <c r="BV6" s="60"/>
-      <c r="BW6" s="60"/>
-      <c r="BX6" s="60"/>
-      <c r="BY6" s="60"/>
-      <c r="BZ6" s="60"/>
-      <c r="CA6" s="60"/>
-      <c r="CB6" s="60"/>
-      <c r="CC6" s="60"/>
-      <c r="CD6" s="60"/>
-      <c r="CE6" s="60"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="51"/>
+      <c r="BR6" s="51"/>
+      <c r="BS6" s="51"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="51"/>
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="51"/>
+      <c r="BX6" s="51"/>
+      <c r="BY6" s="51"/>
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="51"/>
+      <c r="CB6" s="51"/>
+      <c r="CC6" s="51"/>
+      <c r="CD6" s="51"/>
+      <c r="CE6" s="51"/>
     </row>
     <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -1870,132 +1887,132 @@
       <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="46">
         <v>45992</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="54" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56">
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="46">
         <v>45993</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="54" t="s">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56">
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="46">
         <v>45999</v>
       </c>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="54" t="s">
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="56">
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="46">
         <v>46000</v>
       </c>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="54" t="s">
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="56">
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="46">
         <v>46006</v>
       </c>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="54" t="s">
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="56">
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="46">
         <v>46007</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="54" t="s">
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="BA7" s="55"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-      <c r="BD7" s="56">
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="46">
         <v>46027</v>
       </c>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="54" t="s">
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="46"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="BI7" s="55"/>
-      <c r="BJ7" s="55"/>
-      <c r="BK7" s="55"/>
-      <c r="BL7" s="56">
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="46">
         <v>46028</v>
       </c>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="54" t="s">
+      <c r="BM7" s="46"/>
+      <c r="BN7" s="46"/>
+      <c r="BO7" s="47"/>
+      <c r="BP7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="BQ7" s="55"/>
-      <c r="BR7" s="55"/>
-      <c r="BS7" s="55"/>
-      <c r="BT7" s="56">
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="46">
         <v>46034</v>
       </c>
-      <c r="BU7" s="56"/>
-      <c r="BV7" s="56"/>
-      <c r="BW7" s="57"/>
-      <c r="BX7" s="54" t="s">
+      <c r="BU7" s="46"/>
+      <c r="BV7" s="46"/>
+      <c r="BW7" s="47"/>
+      <c r="BX7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="BY7" s="55"/>
-      <c r="BZ7" s="55"/>
-      <c r="CA7" s="55"/>
-      <c r="CB7" s="56">
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="46">
         <v>46035</v>
       </c>
-      <c r="CC7" s="56"/>
-      <c r="CD7" s="56"/>
-      <c r="CE7" s="57"/>
-      <c r="CF7" s="42" t="s">
+      <c r="CC7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CE7" s="47"/>
+      <c r="CF7" s="55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
@@ -2242,18 +2259,18 @@
       <c r="CE8" s="7">
         <v>8</v>
       </c>
-      <c r="CF8" s="42"/>
+      <c r="CF8" s="55"/>
     </row>
     <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2266,16 +2283,16 @@
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
-      <c r="T9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="47"/>
+      <c r="T9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="35"/>
@@ -2332,11 +2349,11 @@
       <c r="CC9" s="35"/>
       <c r="CD9" s="35"/>
       <c r="CE9" s="35"/>
-      <c r="CF9" s="42"/>
+      <c r="CF9" s="55"/>
     </row>
     <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="13"/>
@@ -2344,10 +2361,10 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -2356,14 +2373,14 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="50"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="35"/>
@@ -2420,11 +2437,11 @@
       <c r="CC10" s="35"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
-      <c r="CF10" s="42"/>
+      <c r="CF10" s="55"/>
     </row>
     <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="13"/>
@@ -2434,8 +2451,8 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="35"/>
@@ -2444,14 +2461,14 @@
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="50"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="35"/>
@@ -2508,11 +2525,11 @@
       <c r="CC11" s="35"/>
       <c r="CD11" s="35"/>
       <c r="CE11" s="35"/>
-      <c r="CF11" s="42"/>
+      <c r="CF11" s="55"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="13"/>
@@ -2532,14 +2549,14 @@
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="50"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
       <c r="AB12" s="33"/>
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
@@ -2596,11 +2613,11 @@
       <c r="CC12" s="35"/>
       <c r="CD12" s="35"/>
       <c r="CE12" s="35"/>
-      <c r="CF12" s="42"/>
+      <c r="CF12" s="55"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="13"/>
@@ -2614,21 +2631,21 @@
       <c r="K13" s="16"/>
       <c r="L13" s="3"/>
       <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
+      <c r="N13" s="68"/>
       <c r="O13" s="34"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="65"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="41"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
@@ -2684,11 +2701,11 @@
       <c r="CC13" s="35"/>
       <c r="CD13" s="35"/>
       <c r="CE13" s="35"/>
-      <c r="CF13" s="42"/>
+      <c r="CF13" s="55"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>21</v>
+      <c r="A14" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="13"/>
@@ -2708,14 +2725,14 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="50"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
       <c r="AB14" s="39"/>
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
@@ -2772,11 +2789,11 @@
       <c r="CC14" s="35"/>
       <c r="CD14" s="35"/>
       <c r="CE14" s="35"/>
-      <c r="CF14" s="42"/>
+      <c r="CF14" s="55"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="13"/>
@@ -2796,14 +2813,14 @@
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="50"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
@@ -2860,11 +2877,11 @@
       <c r="CC15" s="35"/>
       <c r="CD15" s="35"/>
       <c r="CE15" s="35"/>
-      <c r="CF15" s="42"/>
+      <c r="CF15" s="55"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="13"/>
@@ -2884,14 +2901,14 @@
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="50"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
@@ -2948,11 +2965,11 @@
       <c r="CC16" s="35"/>
       <c r="CD16" s="35"/>
       <c r="CE16" s="35"/>
-      <c r="CF16" s="42"/>
+      <c r="CF16" s="55"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>26</v>
+      <c r="A17" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="13"/>
@@ -2972,17 +2989,17 @@
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="50"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
       <c r="AB17" s="35"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
       <c r="AE17" s="35"/>
       <c r="AF17" s="35"/>
       <c r="AG17" s="35"/>
@@ -3036,11 +3053,11 @@
       <c r="CC17" s="35"/>
       <c r="CD17" s="35"/>
       <c r="CE17" s="35"/>
-      <c r="CF17" s="42"/>
+      <c r="CF17" s="55"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="13"/>
@@ -3060,14 +3077,14 @@
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="50"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
       <c r="AB18" s="35"/>
       <c r="AC18" s="39"/>
       <c r="AD18" s="39"/>
@@ -3124,12 +3141,10 @@
       <c r="CC18" s="35"/>
       <c r="CD18" s="35"/>
       <c r="CE18" s="35"/>
-      <c r="CF18" s="42"/>
+      <c r="CF18" s="55"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="23"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
@@ -3148,19 +3163,19 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="63"/>
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
       <c r="AE19" s="35"/>
-      <c r="AF19" s="66"/>
+      <c r="AF19" s="35"/>
       <c r="AG19" s="35"/>
       <c r="AH19" s="35"/>
       <c r="AI19" s="35"/>
@@ -3212,7 +3227,7 @@
       <c r="CC19" s="35"/>
       <c r="CD19" s="35"/>
       <c r="CE19" s="35"/>
-      <c r="CF19" s="42"/>
+      <c r="CF19" s="55"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
@@ -3234,14 +3249,14 @@
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="50"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
@@ -3298,7 +3313,7 @@
       <c r="CC20" s="35"/>
       <c r="CD20" s="35"/>
       <c r="CE20" s="35"/>
-      <c r="CF20" s="42"/>
+      <c r="CF20" s="55"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
@@ -3320,14 +3335,14 @@
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="50"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="63"/>
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
@@ -3384,7 +3399,7 @@
       <c r="CC21" s="35"/>
       <c r="CD21" s="35"/>
       <c r="CE21" s="35"/>
-      <c r="CF21" s="42"/>
+      <c r="CF21" s="55"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
@@ -3406,14 +3421,14 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="50"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
@@ -3470,7 +3485,7 @@
       <c r="CC22" s="35"/>
       <c r="CD22" s="35"/>
       <c r="CE22" s="35"/>
-      <c r="CF22" s="42"/>
+      <c r="CF22" s="55"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
@@ -3492,14 +3507,14 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="50"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="63"/>
       <c r="AB23" s="35"/>
       <c r="AC23" s="35"/>
       <c r="AD23" s="35"/>
@@ -3556,7 +3571,7 @@
       <c r="CC23" s="35"/>
       <c r="CD23" s="35"/>
       <c r="CE23" s="35"/>
-      <c r="CF23" s="42"/>
+      <c r="CF23" s="55"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
@@ -3578,14 +3593,14 @@
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="63"/>
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
       <c r="AD24" s="35"/>
@@ -3642,7 +3657,7 @@
       <c r="CC24" s="35"/>
       <c r="CD24" s="35"/>
       <c r="CE24" s="35"/>
-      <c r="CF24" s="42"/>
+      <c r="CF24" s="55"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
@@ -3664,14 +3679,14 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="50"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="63"/>
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
@@ -3728,7 +3743,7 @@
       <c r="CC25" s="35"/>
       <c r="CD25" s="35"/>
       <c r="CE25" s="35"/>
-      <c r="CF25" s="42"/>
+      <c r="CF25" s="55"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
@@ -3750,14 +3765,14 @@
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="50"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="63"/>
       <c r="AB26" s="35"/>
       <c r="AC26" s="35"/>
       <c r="AD26" s="35"/>
@@ -3814,7 +3829,7 @@
       <c r="CC26" s="35"/>
       <c r="CD26" s="35"/>
       <c r="CE26" s="35"/>
-      <c r="CF26" s="42"/>
+      <c r="CF26" s="55"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
@@ -3836,14 +3851,14 @@
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="50"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="63"/>
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
@@ -3900,7 +3915,7 @@
       <c r="CC27" s="35"/>
       <c r="CD27" s="35"/>
       <c r="CE27" s="35"/>
-      <c r="CF27" s="42"/>
+      <c r="CF27" s="55"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
@@ -3922,14 +3937,14 @@
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="50"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="63"/>
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
       <c r="AD28" s="35"/>
@@ -3986,7 +4001,7 @@
       <c r="CC28" s="35"/>
       <c r="CD28" s="35"/>
       <c r="CE28" s="35"/>
-      <c r="CF28" s="42"/>
+      <c r="CF28" s="55"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
@@ -4008,14 +4023,14 @@
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="50"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="63"/>
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
       <c r="AD29" s="35"/>
@@ -4072,7 +4087,7 @@
       <c r="CC29" s="35"/>
       <c r="CD29" s="35"/>
       <c r="CE29" s="35"/>
-      <c r="CF29" s="42"/>
+      <c r="CF29" s="55"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
@@ -4094,14 +4109,14 @@
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="50"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="63"/>
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
       <c r="AD30" s="35"/>
@@ -4158,7 +4173,7 @@
       <c r="CC30" s="35"/>
       <c r="CD30" s="35"/>
       <c r="CE30" s="35"/>
-      <c r="CF30" s="42"/>
+      <c r="CF30" s="55"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
@@ -4180,14 +4195,14 @@
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="50"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="63"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
       <c r="AD31" s="35"/>
@@ -4244,7 +4259,7 @@
       <c r="CC31" s="35"/>
       <c r="CD31" s="35"/>
       <c r="CE31" s="35"/>
-      <c r="CF31" s="42"/>
+      <c r="CF31" s="55"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
@@ -4266,14 +4281,14 @@
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="50"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="63"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
       <c r="AD32" s="35"/>
@@ -4330,7 +4345,7 @@
       <c r="CC32" s="35"/>
       <c r="CD32" s="35"/>
       <c r="CE32" s="35"/>
-      <c r="CF32" s="42"/>
+      <c r="CF32" s="55"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
@@ -4352,14 +4367,14 @@
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="50"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="63"/>
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
       <c r="AD33" s="35"/>
@@ -4416,7 +4431,7 @@
       <c r="CC33" s="35"/>
       <c r="CD33" s="35"/>
       <c r="CE33" s="35"/>
-      <c r="CF33" s="42"/>
+      <c r="CF33" s="55"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
@@ -4438,14 +4453,14 @@
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="50"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="63"/>
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="35"/>
@@ -4502,7 +4517,7 @@
       <c r="CC34" s="35"/>
       <c r="CD34" s="35"/>
       <c r="CE34" s="35"/>
-      <c r="CF34" s="42"/>
+      <c r="CF34" s="55"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
@@ -4524,14 +4539,14 @@
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="50"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="63"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
@@ -4588,7 +4603,7 @@
       <c r="CC35" s="35"/>
       <c r="CD35" s="35"/>
       <c r="CE35" s="35"/>
-      <c r="CF35" s="42"/>
+      <c r="CF35" s="55"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
@@ -4610,14 +4625,14 @@
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="50"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="63"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
       <c r="AD36" s="35"/>
@@ -4674,7 +4689,7 @@
       <c r="CC36" s="35"/>
       <c r="CD36" s="35"/>
       <c r="CE36" s="35"/>
-      <c r="CF36" s="42"/>
+      <c r="CF36" s="55"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
@@ -4696,14 +4711,14 @@
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="50"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="63"/>
       <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
@@ -4760,7 +4775,7 @@
       <c r="CC37" s="35"/>
       <c r="CD37" s="35"/>
       <c r="CE37" s="35"/>
-      <c r="CF37" s="42"/>
+      <c r="CF37" s="55"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
@@ -4782,14 +4797,14 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="50"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="63"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
@@ -4846,7 +4861,7 @@
       <c r="CC38" s="35"/>
       <c r="CD38" s="35"/>
       <c r="CE38" s="35"/>
-      <c r="CF38" s="42"/>
+      <c r="CF38" s="55"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
@@ -4868,14 +4883,14 @@
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="49"/>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="50"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="63"/>
       <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
       <c r="AD39" s="35"/>
@@ -4932,7 +4947,7 @@
       <c r="CC39" s="35"/>
       <c r="CD39" s="35"/>
       <c r="CE39" s="35"/>
-      <c r="CF39" s="42"/>
+      <c r="CF39" s="55"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
@@ -4954,14 +4969,14 @@
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="50"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="63"/>
       <c r="AB40" s="35"/>
       <c r="AC40" s="35"/>
       <c r="AD40" s="35"/>
@@ -5018,7 +5033,7 @@
       <c r="CC40" s="35"/>
       <c r="CD40" s="35"/>
       <c r="CE40" s="35"/>
-      <c r="CF40" s="42"/>
+      <c r="CF40" s="55"/>
     </row>
     <row r="41" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
@@ -5040,14 +5055,14 @@
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="53"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="66"/>
       <c r="AB41" s="19"/>
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
@@ -5104,105 +5119,109 @@
       <c r="CC41" s="20"/>
       <c r="CD41" s="20"/>
       <c r="CE41" s="21"/>
-      <c r="CF41" s="42"/>
+      <c r="CF41" s="55"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-      <c r="AJ42" s="41"/>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="41"/>
-      <c r="AM42" s="41"/>
-      <c r="AN42" s="41"/>
-      <c r="AO42" s="41"/>
-      <c r="AP42" s="41"/>
-      <c r="AQ42" s="41"/>
-      <c r="AR42" s="41"/>
-      <c r="AS42" s="41"/>
-      <c r="AT42" s="41"/>
-      <c r="AU42" s="41"/>
-      <c r="AV42" s="41"/>
-      <c r="AW42" s="41"/>
-      <c r="AX42" s="41"/>
-      <c r="AY42" s="41"/>
-      <c r="AZ42" s="41"/>
-      <c r="BA42" s="41"/>
-      <c r="BB42" s="41"/>
-      <c r="BC42" s="41"/>
-      <c r="BD42" s="41"/>
-      <c r="BE42" s="41"/>
-      <c r="BF42" s="41"/>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="41"/>
-      <c r="BI42" s="41"/>
-      <c r="BJ42" s="41"/>
-      <c r="BK42" s="41"/>
-      <c r="BL42" s="41"/>
-      <c r="BM42" s="41"/>
-      <c r="BN42" s="41"/>
-      <c r="BO42" s="41"/>
-      <c r="BP42" s="41"/>
-      <c r="BQ42" s="41"/>
-      <c r="BR42" s="41"/>
-      <c r="BS42" s="41"/>
-      <c r="BT42" s="41"/>
-      <c r="BU42" s="41"/>
-      <c r="BV42" s="41"/>
-      <c r="BW42" s="41"/>
-      <c r="BX42" s="41"/>
-      <c r="BY42" s="41"/>
-      <c r="BZ42" s="41"/>
-      <c r="CA42" s="41"/>
-      <c r="CB42" s="41"/>
-      <c r="CC42" s="41"/>
-      <c r="CD42" s="41"/>
-      <c r="CE42" s="41"/>
+      <c r="A42" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54"/>
+      <c r="AN42" s="54"/>
+      <c r="AO42" s="54"/>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="54"/>
+      <c r="AU42" s="54"/>
+      <c r="AV42" s="54"/>
+      <c r="AW42" s="54"/>
+      <c r="AX42" s="54"/>
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="54"/>
+      <c r="BB42" s="54"/>
+      <c r="BC42" s="54"/>
+      <c r="BD42" s="54"/>
+      <c r="BE42" s="54"/>
+      <c r="BF42" s="54"/>
+      <c r="BG42" s="54"/>
+      <c r="BH42" s="54"/>
+      <c r="BI42" s="54"/>
+      <c r="BJ42" s="54"/>
+      <c r="BK42" s="54"/>
+      <c r="BL42" s="54"/>
+      <c r="BM42" s="54"/>
+      <c r="BN42" s="54"/>
+      <c r="BO42" s="54"/>
+      <c r="BP42" s="54"/>
+      <c r="BQ42" s="54"/>
+      <c r="BR42" s="54"/>
+      <c r="BS42" s="54"/>
+      <c r="BT42" s="54"/>
+      <c r="BU42" s="54"/>
+      <c r="BV42" s="54"/>
+      <c r="BW42" s="54"/>
+      <c r="BX42" s="54"/>
+      <c r="BY42" s="54"/>
+      <c r="BZ42" s="54"/>
+      <c r="CA42" s="54"/>
+      <c r="CB42" s="54"/>
+      <c r="CC42" s="54"/>
+      <c r="CD42" s="54"/>
+      <c r="CE42" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D5:AQ6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A42:CE42"/>
+    <mergeCell ref="CF7:CF41"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="T9:AA41"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="AR5:CE6"/>
     <mergeCell ref="AJ7:AM7"/>
     <mergeCell ref="AN7:AQ7"/>
@@ -5217,18 +5236,14 @@
     <mergeCell ref="BP7:BS7"/>
     <mergeCell ref="BX7:CA7"/>
     <mergeCell ref="CB7:CE7"/>
-    <mergeCell ref="A42:CE42"/>
-    <mergeCell ref="CF7:CF41"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="T9:AA41"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D5:AQ6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B9:B41">
@@ -5257,6 +5272,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5469,27 +5504,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5506,29 +5546,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/emma_morales_studentfr_ch/Documents/EMF/3ème année/bloc 3/module 306/projet/projet-306-tercier-morales-bersier/projet-306-tercier-morales-bersier/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="693" documentId="8_{B2846645-C079-404D-A431-14CA584EB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C278DF-A493-4C3F-B242-A50E5F5C42EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D183C7D-9863-4C13-B28F-6EB5D841E266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>Tous</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t xml:space="preserve">Emma Morales + Elouan Tercier </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1130,56 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1173,58 +1232,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1709,10 +1718,10 @@
   <dimension ref="A1:CF41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D20" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:AQ6"/>
+      <selection pane="bottomRight" activeCell="AR24" sqref="AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1727,11 +1736,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1779,8 +1788,8 @@
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1873,8 +1882,8 @@
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1925,90 +1934,90 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="84">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="75">
         <v>0</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="84"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="84"/>
-      <c r="BH5" s="84"/>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
-      <c r="BM5" s="84"/>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
-      <c r="BR5" s="84"/>
-      <c r="BS5" s="84"/>
-      <c r="BT5" s="84"/>
-      <c r="BU5" s="84"/>
-      <c r="BV5" s="84"/>
-      <c r="BW5" s="84"/>
-      <c r="BX5" s="84"/>
-      <c r="BY5" s="84"/>
-      <c r="BZ5" s="84"/>
-      <c r="CA5" s="84"/>
-      <c r="CB5" s="84"/>
-      <c r="CC5" s="84"/>
-      <c r="CD5" s="84"/>
-      <c r="CE5" s="84"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="75"/>
+      <c r="BH5" s="75"/>
+      <c r="BI5" s="75"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
+      <c r="BO5" s="75"/>
+      <c r="BP5" s="75"/>
+      <c r="BQ5" s="75"/>
+      <c r="BR5" s="75"/>
+      <c r="BS5" s="75"/>
+      <c r="BT5" s="75"/>
+      <c r="BU5" s="75"/>
+      <c r="BV5" s="75"/>
+      <c r="BW5" s="75"/>
+      <c r="BX5" s="75"/>
+      <c r="BY5" s="75"/>
+      <c r="BZ5" s="75"/>
+      <c r="CA5" s="75"/>
+      <c r="CB5" s="75"/>
+      <c r="CC5" s="75"/>
+      <c r="CD5" s="75"/>
+      <c r="CE5" s="75"/>
     </row>
     <row r="6" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -2016,89 +2025,89 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="85"/>
-      <c r="AW6" s="85"/>
-      <c r="AX6" s="85"/>
-      <c r="AY6" s="85"/>
-      <c r="AZ6" s="85"/>
-      <c r="BA6" s="85"/>
-      <c r="BB6" s="85"/>
-      <c r="BC6" s="85"/>
-      <c r="BD6" s="85"/>
-      <c r="BE6" s="85"/>
-      <c r="BF6" s="85"/>
-      <c r="BG6" s="85"/>
-      <c r="BH6" s="85"/>
-      <c r="BI6" s="85"/>
-      <c r="BJ6" s="85"/>
-      <c r="BK6" s="85"/>
-      <c r="BL6" s="85"/>
-      <c r="BM6" s="85"/>
-      <c r="BN6" s="85"/>
-      <c r="BO6" s="85"/>
-      <c r="BP6" s="85"/>
-      <c r="BQ6" s="85"/>
-      <c r="BR6" s="85"/>
-      <c r="BS6" s="85"/>
-      <c r="BT6" s="85"/>
-      <c r="BU6" s="85"/>
-      <c r="BV6" s="85"/>
-      <c r="BW6" s="85"/>
-      <c r="BX6" s="85"/>
-      <c r="BY6" s="85"/>
-      <c r="BZ6" s="85"/>
-      <c r="CA6" s="85"/>
-      <c r="CB6" s="85"/>
-      <c r="CC6" s="85"/>
-      <c r="CD6" s="85"/>
-      <c r="CE6" s="85"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="76"/>
+      <c r="BG6" s="76"/>
+      <c r="BH6" s="76"/>
+      <c r="BI6" s="76"/>
+      <c r="BJ6" s="76"/>
+      <c r="BK6" s="76"/>
+      <c r="BL6" s="76"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="76"/>
+      <c r="BO6" s="76"/>
+      <c r="BP6" s="76"/>
+      <c r="BQ6" s="76"/>
+      <c r="BR6" s="76"/>
+      <c r="BS6" s="76"/>
+      <c r="BT6" s="76"/>
+      <c r="BU6" s="76"/>
+      <c r="BV6" s="76"/>
+      <c r="BW6" s="76"/>
+      <c r="BX6" s="76"/>
+      <c r="BY6" s="76"/>
+      <c r="BZ6" s="76"/>
+      <c r="CA6" s="76"/>
+      <c r="CB6" s="76"/>
+      <c r="CC6" s="76"/>
+      <c r="CD6" s="76"/>
+      <c r="CE6" s="76"/>
     </row>
     <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="81" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -2107,132 +2116,132 @@
       <c r="C7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81">
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="71">
         <v>45992</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="79" t="s">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="81">
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="71">
         <v>45993</v>
       </c>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="79" t="s">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="81">
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="71">
         <v>45999</v>
       </c>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="79" t="s">
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="81">
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="71">
         <v>46000</v>
       </c>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="79" t="s">
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="81">
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="71">
         <v>46006</v>
       </c>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="79" t="s">
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AS7" s="80"/>
-      <c r="AT7" s="80"/>
-      <c r="AU7" s="80"/>
-      <c r="AV7" s="81">
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="71">
         <v>46007</v>
       </c>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="82"/>
-      <c r="AZ7" s="79" t="s">
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="BA7" s="80"/>
-      <c r="BB7" s="80"/>
-      <c r="BC7" s="80"/>
-      <c r="BD7" s="81">
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="71">
         <v>46027</v>
       </c>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="82"/>
-      <c r="BH7" s="79" t="s">
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BI7" s="80"/>
-      <c r="BJ7" s="80"/>
-      <c r="BK7" s="80"/>
-      <c r="BL7" s="81">
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="71">
         <v>46028</v>
       </c>
-      <c r="BM7" s="81"/>
-      <c r="BN7" s="81"/>
-      <c r="BO7" s="82"/>
-      <c r="BP7" s="79" t="s">
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="BQ7" s="80"/>
-      <c r="BR7" s="80"/>
-      <c r="BS7" s="80"/>
-      <c r="BT7" s="81">
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="74"/>
+      <c r="BS7" s="74"/>
+      <c r="BT7" s="71">
         <v>46034</v>
       </c>
-      <c r="BU7" s="81"/>
-      <c r="BV7" s="81"/>
-      <c r="BW7" s="82"/>
-      <c r="BX7" s="79" t="s">
+      <c r="BU7" s="71"/>
+      <c r="BV7" s="71"/>
+      <c r="BW7" s="72"/>
+      <c r="BX7" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BY7" s="80"/>
-      <c r="BZ7" s="80"/>
-      <c r="CA7" s="80"/>
-      <c r="CB7" s="81">
+      <c r="BY7" s="74"/>
+      <c r="BZ7" s="74"/>
+      <c r="CA7" s="74"/>
+      <c r="CB7" s="71">
         <v>46035</v>
       </c>
-      <c r="CC7" s="81"/>
-      <c r="CD7" s="81"/>
-      <c r="CE7" s="82"/>
-      <c r="CF7" s="67" t="s">
+      <c r="CC7" s="71"/>
+      <c r="CD7" s="71"/>
+      <c r="CE7" s="72"/>
+      <c r="CF7" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
@@ -2479,7 +2488,7 @@
       <c r="CE8" s="7">
         <v>8</v>
       </c>
-      <c r="CF8" s="67"/>
+      <c r="CF8" s="80"/>
     </row>
     <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
@@ -2489,10 +2498,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
@@ -2505,16 +2514,16 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
-      <c r="T9" s="70" t="s">
+      <c r="T9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="72"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="85"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
@@ -2571,7 +2580,7 @@
       <c r="CC9" s="44"/>
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
-      <c r="CF9" s="67"/>
+      <c r="CF9" s="80"/>
     </row>
     <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
@@ -2585,10 +2594,10 @@
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
@@ -2597,14 +2606,14 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="75"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="88"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
@@ -2661,7 +2670,7 @@
       <c r="CC10" s="44"/>
       <c r="CD10" s="44"/>
       <c r="CE10" s="44"/>
-      <c r="CF10" s="67"/>
+      <c r="CF10" s="80"/>
     </row>
     <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
@@ -2687,14 +2696,14 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="75"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="88"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="44"/>
       <c r="AD11" s="44"/>
@@ -2751,7 +2760,7 @@
       <c r="CC11" s="44"/>
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
-      <c r="CF11" s="67"/>
+      <c r="CF11" s="80"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
@@ -2777,14 +2786,14 @@
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="75"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="88"/>
       <c r="AB12" s="44"/>
       <c r="AC12" s="44"/>
       <c r="AD12" s="44"/>
@@ -2841,10 +2850,10 @@
       <c r="CC12" s="44"/>
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
-      <c r="CF12" s="67"/>
+      <c r="CF12" s="80"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -2867,14 +2876,14 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="75"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="88"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
@@ -2931,10 +2940,10 @@
       <c r="CC13" s="44"/>
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
-      <c r="CF13" s="67"/>
+      <c r="CF13" s="80"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -2957,15 +2966,17 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="45"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="AC14" s="44"/>
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
@@ -3021,10 +3032,10 @@
       <c r="CC14" s="44"/>
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
-      <c r="CF14" s="67"/>
+      <c r="CF14" s="80"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -3047,25 +3058,35 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="75"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="88"/>
       <c r="AB15" s="44"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
+      <c r="AC15" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD15" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="AE15" s="44"/>
       <c r="AF15" s="44"/>
       <c r="AG15" s="44"/>
       <c r="AH15" s="44"/>
       <c r="AI15" s="44"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="44"/>
+      <c r="AJ15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL15" s="44" t="s">
+        <v>53</v>
+      </c>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
       <c r="AO15" s="44"/>
@@ -3111,7 +3132,7 @@
       <c r="CC15" s="44"/>
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
-      <c r="CF15" s="67"/>
+      <c r="CF15" s="80"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
@@ -3135,14 +3156,14 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="75"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="88"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
@@ -3199,7 +3220,7 @@
       <c r="CC16" s="44"/>
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
-      <c r="CF16" s="67"/>
+      <c r="CF16" s="80"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
@@ -3223,14 +3244,14 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="75"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="88"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
@@ -3239,11 +3260,21 @@
       <c r="AG17" s="44"/>
       <c r="AH17" s="44"/>
       <c r="AI17" s="44"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
+      <c r="AJ17" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK17" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL17" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM17" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN17" s="49" t="s">
+        <v>54</v>
+      </c>
       <c r="AO17" s="49"/>
       <c r="AP17" s="49"/>
       <c r="AQ17" s="49"/>
@@ -3287,7 +3318,7 @@
       <c r="CC17" s="44"/>
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
-      <c r="CF17" s="67"/>
+      <c r="CF17" s="80"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
@@ -3311,14 +3342,14 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="75"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="88"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
@@ -3327,14 +3358,20 @@
       <c r="AG18" s="44"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
       <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
+      <c r="AO18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP18" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ18" s="44" t="s">
+        <v>54</v>
+      </c>
       <c r="AR18" s="44"/>
       <c r="AS18" s="44"/>
       <c r="AT18" s="44"/>
@@ -3375,7 +3412,7 @@
       <c r="CC18" s="44"/>
       <c r="CD18" s="44"/>
       <c r="CE18" s="44"/>
-      <c r="CF18" s="67"/>
+      <c r="CF18" s="80"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
@@ -3399,14 +3436,14 @@
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="75"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="88"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
@@ -3423,10 +3460,18 @@
       <c r="AO19" s="44"/>
       <c r="AP19" s="44"/>
       <c r="AQ19" s="44"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="60"/>
-      <c r="AU19" s="60"/>
+      <c r="AR19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT19" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU19" s="60" t="s">
+        <v>54</v>
+      </c>
       <c r="AV19" s="44"/>
       <c r="AW19" s="44"/>
       <c r="AX19" s="44"/>
@@ -3463,7 +3508,7 @@
       <c r="CC19" s="44"/>
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
-      <c r="CF19" s="67"/>
+      <c r="CF19" s="80"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
@@ -3487,14 +3532,14 @@
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="75"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="88"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
@@ -3551,7 +3596,7 @@
       <c r="CC20" s="44"/>
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
-      <c r="CF20" s="67"/>
+      <c r="CF20" s="80"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
@@ -3575,14 +3620,14 @@
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="75"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="88"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
@@ -3594,8 +3639,12 @@
       <c r="AJ21" s="46"/>
       <c r="AK21" s="46"/>
       <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="44"/>
+      <c r="AM21" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN21" s="44" t="s">
+        <v>55</v>
+      </c>
       <c r="AO21" s="44"/>
       <c r="AP21" s="44"/>
       <c r="AQ21" s="44"/>
@@ -3639,7 +3688,7 @@
       <c r="CC21" s="44"/>
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
-      <c r="CF21" s="67"/>
+      <c r="CF21" s="80"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
@@ -3663,14 +3712,14 @@
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="75"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="88"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
@@ -3727,7 +3776,7 @@
       <c r="CC22" s="44"/>
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
-      <c r="CF22" s="67"/>
+      <c r="CF22" s="80"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -3751,14 +3800,14 @@
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="75"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="88"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
@@ -3772,9 +3821,15 @@
       <c r="AL23" s="61"/>
       <c r="AM23" s="53"/>
       <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
+      <c r="AO23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ23" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="AR23" s="26"/>
       <c r="AS23" s="26"/>
       <c r="AT23" s="26"/>
@@ -3815,7 +3870,7 @@
       <c r="CC23" s="44"/>
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
-      <c r="CF23" s="67"/>
+      <c r="CF23" s="80"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
@@ -3839,14 +3894,14 @@
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="75"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="88"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="44"/>
@@ -3863,7 +3918,9 @@
       <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
       <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
+      <c r="AR24" s="44" t="s">
+        <v>55</v>
+      </c>
       <c r="AS24" s="44"/>
       <c r="AT24" s="44"/>
       <c r="AU24" s="44"/>
@@ -3903,7 +3960,7 @@
       <c r="CC24" s="44"/>
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
-      <c r="CF24" s="67"/>
+      <c r="CF24" s="80"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
@@ -3927,14 +3984,14 @@
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="75"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="88"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
       <c r="AD25" s="44"/>
@@ -3991,7 +4048,7 @@
       <c r="CC25" s="44"/>
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
-      <c r="CF25" s="67"/>
+      <c r="CF25" s="80"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
@@ -4015,14 +4072,14 @@
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="75"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="88"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="44"/>
@@ -4079,7 +4136,7 @@
       <c r="CC26" s="44"/>
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
-      <c r="CF26" s="67"/>
+      <c r="CF26" s="80"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
@@ -4103,14 +4160,14 @@
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="75"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="88"/>
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
       <c r="AD27" s="44"/>
@@ -4167,7 +4224,7 @@
       <c r="CC27" s="44"/>
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
-      <c r="CF27" s="67"/>
+      <c r="CF27" s="80"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
@@ -4191,14 +4248,14 @@
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="75"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="88"/>
       <c r="AB28" s="44"/>
       <c r="AC28" s="44"/>
       <c r="AD28" s="44"/>
@@ -4255,7 +4312,7 @@
       <c r="CC28" s="44"/>
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
-      <c r="CF28" s="67"/>
+      <c r="CF28" s="80"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
@@ -4279,14 +4336,14 @@
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="75"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="88"/>
       <c r="AB29" s="44"/>
       <c r="AC29" s="44"/>
       <c r="AD29" s="44"/>
@@ -4343,7 +4400,7 @@
       <c r="CC29" s="44"/>
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
-      <c r="CF29" s="67"/>
+      <c r="CF29" s="80"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
@@ -4369,14 +4426,14 @@
       <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="75"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="88"/>
       <c r="AB30" s="44"/>
       <c r="AC30" s="44"/>
       <c r="AD30" s="44"/>
@@ -4433,7 +4490,7 @@
       <c r="CC30" s="44"/>
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
-      <c r="CF30" s="67"/>
+      <c r="CF30" s="80"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
@@ -4451,22 +4508,30 @@
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
       <c r="K31" s="58"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
+      <c r="L31" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="P31" s="44"/>
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="75"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="88"/>
       <c r="AB31" s="44"/>
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
@@ -4523,7 +4588,7 @@
       <c r="CC31" s="44"/>
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
-      <c r="CF31" s="67"/>
+      <c r="CF31" s="80"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
@@ -4541,22 +4606,30 @@
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="K32" s="58"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="L32" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="75"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="88"/>
       <c r="AB32" s="44"/>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -4613,7 +4686,7 @@
       <c r="CC32" s="44"/>
       <c r="CD32" s="44"/>
       <c r="CE32" s="44"/>
-      <c r="CF32" s="67"/>
+      <c r="CF32" s="80"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
@@ -4631,24 +4704,36 @@
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
       <c r="K33" s="58"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
+      <c r="L33" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="P33" s="44"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC33" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="AD33" s="44"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
@@ -4703,7 +4788,7 @@
       <c r="CC33" s="44"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
-      <c r="CF33" s="67"/>
+      <c r="CF33" s="80"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
@@ -4729,14 +4814,14 @@
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="75"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="88"/>
       <c r="AB34" s="47"/>
       <c r="AC34" s="44"/>
       <c r="AD34" s="44"/>
@@ -4793,7 +4878,7 @@
       <c r="CC34" s="44"/>
       <c r="CD34" s="44"/>
       <c r="CE34" s="44"/>
-      <c r="CF34" s="67"/>
+      <c r="CF34" s="80"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
@@ -4819,18 +4904,22 @@
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="75"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="88"/>
       <c r="AB35" s="44"/>
       <c r="AC35" s="44"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
+      <c r="AD35" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE35" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="AF35" s="44"/>
       <c r="AG35" s="44"/>
       <c r="AH35" s="44"/>
@@ -4883,7 +4972,7 @@
       <c r="CC35" s="44"/>
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
-      <c r="CF35" s="67"/>
+      <c r="CF35" s="80"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
@@ -4893,34 +4982,66 @@
         <v>34</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
+      <c r="D36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36" s="50" t="s">
+        <v>53</v>
+      </c>
       <c r="P36" s="44"/>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="88"/>
+      <c r="AB36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD36" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE36" s="50" t="s">
+        <v>53</v>
+      </c>
       <c r="AF36" s="44"/>
       <c r="AG36" s="44"/>
       <c r="AH36" s="44"/>
@@ -4973,7 +5094,7 @@
       <c r="CC36" s="44"/>
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
-      <c r="CF36" s="67"/>
+      <c r="CF36" s="80"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
@@ -4999,18 +5120,20 @@
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="75"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="88"/>
       <c r="AB37" s="44"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="34"/>
-      <c r="AE37" s="45"/>
+      <c r="AE37" s="45" t="s">
+        <v>53</v>
+      </c>
       <c r="AF37" s="44"/>
       <c r="AG37" s="44"/>
       <c r="AH37" s="44"/>
@@ -5063,7 +5186,7 @@
       <c r="CC37" s="44"/>
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
-      <c r="CF37" s="67"/>
+      <c r="CF37" s="80"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
@@ -5087,14 +5210,14 @@
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="X38" s="74"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="75"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="88"/>
       <c r="AB38" s="44"/>
       <c r="AC38" s="44"/>
       <c r="AD38" s="44"/>
@@ -5151,7 +5274,7 @@
       <c r="CC38" s="44"/>
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
-      <c r="CF38" s="67"/>
+      <c r="CF38" s="80"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
@@ -5175,14 +5298,14 @@
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="74"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="74"/>
-      <c r="AA39" s="75"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="88"/>
       <c r="AB39" s="44"/>
       <c r="AC39" s="44"/>
       <c r="AD39" s="44"/>
@@ -5239,7 +5362,7 @@
       <c r="CC39" s="44"/>
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
-      <c r="CF39" s="67"/>
+      <c r="CF39" s="80"/>
     </row>
     <row r="40" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
@@ -5261,14 +5384,14 @@
       <c r="Q40" s="44"/>
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="77"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="77"/>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="78"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="91"/>
       <c r="AB40" s="12"/>
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
@@ -5325,105 +5448,109 @@
       <c r="CC40" s="13"/>
       <c r="CD40" s="13"/>
       <c r="CE40" s="14"/>
-      <c r="CF40" s="67"/>
+      <c r="CF40" s="80"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="66"/>
-      <c r="AR41" s="66"/>
-      <c r="AS41" s="66"/>
-      <c r="AT41" s="66"/>
-      <c r="AU41" s="66"/>
-      <c r="AV41" s="66"/>
-      <c r="AW41" s="66"/>
-      <c r="AX41" s="66"/>
-      <c r="AY41" s="66"/>
-      <c r="AZ41" s="66"/>
-      <c r="BA41" s="66"/>
-      <c r="BB41" s="66"/>
-      <c r="BC41" s="66"/>
-      <c r="BD41" s="66"/>
-      <c r="BE41" s="66"/>
-      <c r="BF41" s="66"/>
-      <c r="BG41" s="66"/>
-      <c r="BH41" s="66"/>
-      <c r="BI41" s="66"/>
-      <c r="BJ41" s="66"/>
-      <c r="BK41" s="66"/>
-      <c r="BL41" s="66"/>
-      <c r="BM41" s="66"/>
-      <c r="BN41" s="66"/>
-      <c r="BO41" s="66"/>
-      <c r="BP41" s="66"/>
-      <c r="BQ41" s="66"/>
-      <c r="BR41" s="66"/>
-      <c r="BS41" s="66"/>
-      <c r="BT41" s="66"/>
-      <c r="BU41" s="66"/>
-      <c r="BV41" s="66"/>
-      <c r="BW41" s="66"/>
-      <c r="BX41" s="66"/>
-      <c r="BY41" s="66"/>
-      <c r="BZ41" s="66"/>
-      <c r="CA41" s="66"/>
-      <c r="CB41" s="66"/>
-      <c r="CC41" s="66"/>
-      <c r="CD41" s="66"/>
-      <c r="CE41" s="66"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="79"/>
+      <c r="AL41" s="79"/>
+      <c r="AM41" s="79"/>
+      <c r="AN41" s="79"/>
+      <c r="AO41" s="79"/>
+      <c r="AP41" s="79"/>
+      <c r="AQ41" s="79"/>
+      <c r="AR41" s="79"/>
+      <c r="AS41" s="79"/>
+      <c r="AT41" s="79"/>
+      <c r="AU41" s="79"/>
+      <c r="AV41" s="79"/>
+      <c r="AW41" s="79"/>
+      <c r="AX41" s="79"/>
+      <c r="AY41" s="79"/>
+      <c r="AZ41" s="79"/>
+      <c r="BA41" s="79"/>
+      <c r="BB41" s="79"/>
+      <c r="BC41" s="79"/>
+      <c r="BD41" s="79"/>
+      <c r="BE41" s="79"/>
+      <c r="BF41" s="79"/>
+      <c r="BG41" s="79"/>
+      <c r="BH41" s="79"/>
+      <c r="BI41" s="79"/>
+      <c r="BJ41" s="79"/>
+      <c r="BK41" s="79"/>
+      <c r="BL41" s="79"/>
+      <c r="BM41" s="79"/>
+      <c r="BN41" s="79"/>
+      <c r="BO41" s="79"/>
+      <c r="BP41" s="79"/>
+      <c r="BQ41" s="79"/>
+      <c r="BR41" s="79"/>
+      <c r="BS41" s="79"/>
+      <c r="BT41" s="79"/>
+      <c r="BU41" s="79"/>
+      <c r="BV41" s="79"/>
+      <c r="BW41" s="79"/>
+      <c r="BX41" s="79"/>
+      <c r="BY41" s="79"/>
+      <c r="BZ41" s="79"/>
+      <c r="CA41" s="79"/>
+      <c r="CB41" s="79"/>
+      <c r="CC41" s="79"/>
+      <c r="CD41" s="79"/>
+      <c r="CE41" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D5:AQ6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A41:CE41"/>
+    <mergeCell ref="CF7:CF40"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="T9:AA40"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="AR5:CE6"/>
     <mergeCell ref="AJ7:AM7"/>
     <mergeCell ref="AN7:AQ7"/>
@@ -5438,18 +5565,14 @@
     <mergeCell ref="BP7:BS7"/>
     <mergeCell ref="BX7:CA7"/>
     <mergeCell ref="CB7:CE7"/>
-    <mergeCell ref="A41:CE41"/>
-    <mergeCell ref="CF7:CF40"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="T9:AA40"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D5:AQ6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B9:B40">
@@ -5478,6 +5601,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5690,27 +5833,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5727,29 +5875,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D183C7D-9863-4C13-B28F-6EB5D841E266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1BE85-9E06-48A7-B8B1-D8B9EE814E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$CE$44</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>Tous</t>
   </si>
@@ -140,18 +140,6 @@
     <t>Base de données</t>
   </si>
   <si>
-    <t>Diagramme SQL</t>
-  </si>
-  <si>
-    <t>Analyse de la DB</t>
-  </si>
-  <si>
-    <t>Mise en place de la DB</t>
-  </si>
-  <si>
-    <t>Tester la gestion du salaire automatique</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -213,40 +201,10 @@
     <t>Gestion accès RFID</t>
   </si>
   <si>
-    <t xml:space="preserve">Lecture des cartes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoriser l'entrée </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afficher dans l'écran LCD l'autorisation </t>
-  </si>
-  <si>
-    <t>Interface Web avec l'authentification, etc</t>
-  </si>
-  <si>
     <t>Gestion des heures</t>
   </si>
   <si>
-    <t>Enregistrer l'heure d'entrée / sortie</t>
-  </si>
-  <si>
-    <t>Chaque user peut voir ses heures</t>
-  </si>
-  <si>
-    <t>Les admin et les RH peuvent voir les heures de tout les employés</t>
-  </si>
-  <si>
-    <t>Détecter les heures (pas de badge à la sortie, double badge à la même heure)</t>
-  </si>
-  <si>
-    <t>Chaque user peut voir son salaire total dépendant de ses heures</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interface Web </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface pour que l'admin puisse gérer les accès et les utilisateurs </t>
   </si>
   <si>
     <t>Elouan Tercier + Noé Bersier</t>
@@ -262,6 +220,280 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diagramme SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyse de la DB  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mise en place de la DB  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lecture des cartes   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Autoriser l'entrée   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Afficher dans l'écran LCD l'autorisation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enregistrer l'heure d'entrée / sortie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chaque user peut voir ses heures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les admin et les RH peuvent voir les heures de tout les employés </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Détecter les heures en DB (pas de badge à la sortie, double badge à la même heure) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chaque user peut voir son salaire total dépendant de ses heures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interface pour que l'admin puisse gérer les accès et les utilisateurs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interface pour que l'admin puisse voir les logs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tester la gestion du salaire automatique </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">developpement de Route API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">admin peut voir sur un planing de présence d'un employer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Déployer le code sur raspberry </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interface Web avec l'authentification </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+  </si>
+  <si>
+    <t>1+AZ8:AZ38</t>
   </si>
 </sst>
 </file>
@@ -485,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -509,19 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -544,34 +763,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -880,25 +1071,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -914,43 +1092,43 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -958,23 +1136,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -998,19 +1176,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -1019,13 +1197,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -1034,10 +1212,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -1046,15 +1224,15 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1065,19 +1243,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1085,37 +1255,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1126,114 +1272,114 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1435,7 @@
     <xdr:to>
       <xdr:col>88</xdr:col>
       <xdr:colOff>231855</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>56546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1715,13 +1861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF41"/>
+  <dimension ref="A1:CF45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AR24" sqref="AR24"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1736,13 +1882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="A1" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1768,12 +1914,12 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
@@ -1788,8 +1934,8 @@
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1882,8 +2028,8 @@
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1934,180 +2080,180 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="75">
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="77">
         <v>0</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="75"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75"/>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="75"/>
-      <c r="AU5" s="75"/>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="75"/>
-      <c r="BH5" s="75"/>
-      <c r="BI5" s="75"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
-      <c r="BM5" s="75"/>
-      <c r="BN5" s="75"/>
-      <c r="BO5" s="75"/>
-      <c r="BP5" s="75"/>
-      <c r="BQ5" s="75"/>
-      <c r="BR5" s="75"/>
-      <c r="BS5" s="75"/>
-      <c r="BT5" s="75"/>
-      <c r="BU5" s="75"/>
-      <c r="BV5" s="75"/>
-      <c r="BW5" s="75"/>
-      <c r="BX5" s="75"/>
-      <c r="BY5" s="75"/>
-      <c r="BZ5" s="75"/>
-      <c r="CA5" s="75"/>
-      <c r="CB5" s="75"/>
-      <c r="CC5" s="75"/>
-      <c r="CD5" s="75"/>
-      <c r="CE5" s="75"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="77"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="77"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="77"/>
+      <c r="AW5" s="77"/>
+      <c r="AX5" s="77"/>
+      <c r="AY5" s="77"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="77"/>
+      <c r="BB5" s="77"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="77"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="77"/>
+      <c r="BG5" s="77"/>
+      <c r="BH5" s="77"/>
+      <c r="BI5" s="77"/>
+      <c r="BJ5" s="77"/>
+      <c r="BK5" s="77"/>
+      <c r="BL5" s="77"/>
+      <c r="BM5" s="77"/>
+      <c r="BN5" s="77"/>
+      <c r="BO5" s="77"/>
+      <c r="BP5" s="77"/>
+      <c r="BQ5" s="77"/>
+      <c r="BR5" s="77"/>
+      <c r="BS5" s="77"/>
+      <c r="BT5" s="77"/>
+      <c r="BU5" s="77"/>
+      <c r="BV5" s="77"/>
+      <c r="BW5" s="77"/>
+      <c r="BX5" s="77"/>
+      <c r="BY5" s="77"/>
+      <c r="BZ5" s="77"/>
+      <c r="CA5" s="77"/>
+      <c r="CB5" s="77"/>
+      <c r="CC5" s="77"/>
+      <c r="CD5" s="77"/>
+      <c r="CE5" s="77"/>
     </row>
     <row r="6" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
-      <c r="BC6" s="76"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="76"/>
-      <c r="BG6" s="76"/>
-      <c r="BH6" s="76"/>
-      <c r="BI6" s="76"/>
-      <c r="BJ6" s="76"/>
-      <c r="BK6" s="76"/>
-      <c r="BL6" s="76"/>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="76"/>
-      <c r="BO6" s="76"/>
-      <c r="BP6" s="76"/>
-      <c r="BQ6" s="76"/>
-      <c r="BR6" s="76"/>
-      <c r="BS6" s="76"/>
-      <c r="BT6" s="76"/>
-      <c r="BU6" s="76"/>
-      <c r="BV6" s="76"/>
-      <c r="BW6" s="76"/>
-      <c r="BX6" s="76"/>
-      <c r="BY6" s="76"/>
-      <c r="BZ6" s="76"/>
-      <c r="CA6" s="76"/>
-      <c r="CB6" s="76"/>
-      <c r="CC6" s="76"/>
-      <c r="CD6" s="76"/>
-      <c r="CE6" s="76"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="78"/>
+      <c r="AU6" s="78"/>
+      <c r="AV6" s="78"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="78"/>
+      <c r="AZ6" s="78"/>
+      <c r="BA6" s="78"/>
+      <c r="BB6" s="78"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="78"/>
+      <c r="BE6" s="78"/>
+      <c r="BF6" s="78"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="78"/>
+      <c r="BI6" s="78"/>
+      <c r="BJ6" s="78"/>
+      <c r="BK6" s="78"/>
+      <c r="BL6" s="78"/>
+      <c r="BM6" s="78"/>
+      <c r="BN6" s="78"/>
+      <c r="BO6" s="78"/>
+      <c r="BP6" s="78"/>
+      <c r="BQ6" s="78"/>
+      <c r="BR6" s="78"/>
+      <c r="BS6" s="78"/>
+      <c r="BT6" s="78"/>
+      <c r="BU6" s="78"/>
+      <c r="BV6" s="78"/>
+      <c r="BW6" s="78"/>
+      <c r="BX6" s="78"/>
+      <c r="BY6" s="78"/>
+      <c r="BZ6" s="78"/>
+      <c r="CA6" s="78"/>
+      <c r="CB6" s="78"/>
+      <c r="CC6" s="78"/>
+      <c r="CD6" s="78"/>
+      <c r="CE6" s="78"/>
     </row>
     <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -2116,132 +2262,132 @@
       <c r="C7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="71">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74">
         <v>45992</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73" t="s">
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="71">
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="74">
         <v>45993</v>
       </c>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="73" t="s">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="71">
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="74">
         <v>45999</v>
       </c>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73" t="s">
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="71">
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="74">
         <v>46000</v>
       </c>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="73" t="s">
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="71">
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="74">
         <v>46006</v>
       </c>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="73" t="s">
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="71">
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="74">
         <v>46007</v>
       </c>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="73" t="s">
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="71">
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="74">
         <v>46027</v>
       </c>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="73" t="s">
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="75"/>
+      <c r="BH7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="71">
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="74">
         <v>46028</v>
       </c>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="73" t="s">
+      <c r="BM7" s="74"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="75"/>
+      <c r="BP7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="BQ7" s="74"/>
-      <c r="BR7" s="74"/>
-      <c r="BS7" s="74"/>
-      <c r="BT7" s="71">
+      <c r="BQ7" s="73"/>
+      <c r="BR7" s="73"/>
+      <c r="BS7" s="73"/>
+      <c r="BT7" s="74">
         <v>46034</v>
       </c>
-      <c r="BU7" s="71"/>
-      <c r="BV7" s="71"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="73" t="s">
+      <c r="BU7" s="74"/>
+      <c r="BV7" s="74"/>
+      <c r="BW7" s="75"/>
+      <c r="BX7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="BY7" s="74"/>
-      <c r="BZ7" s="74"/>
-      <c r="CA7" s="74"/>
-      <c r="CB7" s="71">
+      <c r="BY7" s="73"/>
+      <c r="BZ7" s="73"/>
+      <c r="CA7" s="73"/>
+      <c r="CB7" s="74">
         <v>46035</v>
       </c>
-      <c r="CC7" s="71"/>
-      <c r="CD7" s="71"/>
-      <c r="CE7" s="72"/>
-      <c r="CF7" s="80" t="s">
+      <c r="CC7" s="74"/>
+      <c r="CD7" s="74"/>
+      <c r="CE7" s="75"/>
+      <c r="CF7" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
@@ -2392,8 +2538,8 @@
       <c r="AY8" s="7">
         <v>8</v>
       </c>
-      <c r="AZ8" s="5">
-        <v>1</v>
+      <c r="AZ8" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="BA8" s="6">
         <v>2</v>
@@ -2488,24 +2634,24 @@
       <c r="CE8" s="7">
         <v>8</v>
       </c>
-      <c r="CF8" s="80"/>
+      <c r="CF8" s="60"/>
     </row>
     <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
@@ -2514,16 +2660,16 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
-      <c r="T9" s="83" t="s">
+      <c r="T9" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="85"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
@@ -2580,24 +2726,24 @@
       <c r="CC9" s="44"/>
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
-      <c r="CF9" s="80"/>
+      <c r="CF9" s="60"/>
     </row>
     <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
@@ -2606,14 +2752,14 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="88"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
@@ -2670,40 +2816,40 @@
       <c r="CC10" s="44"/>
       <c r="CD10" s="44"/>
       <c r="CE10" s="44"/>
-      <c r="CF10" s="80"/>
+      <c r="CF10" s="60"/>
     </row>
     <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
       <c r="N11" s="44"/>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="88"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="44"/>
       <c r="AD11" s="44"/>
@@ -2760,24 +2906,24 @@
       <c r="CC11" s="44"/>
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
-      <c r="CF11" s="80"/>
+      <c r="CF11" s="60"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
@@ -2786,14 +2932,14 @@
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="88"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
       <c r="AB12" s="44"/>
       <c r="AC12" s="44"/>
       <c r="AD12" s="44"/>
@@ -2850,40 +2996,40 @@
       <c r="CC12" s="44"/>
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
-      <c r="CF12" s="80"/>
+      <c r="CF12" s="60"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
-        <v>21</v>
+      <c r="A13" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
-      <c r="O13" s="53"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
@@ -2940,24 +3086,24 @@
       <c r="CC13" s="44"/>
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
-      <c r="CF13" s="80"/>
+      <c r="CF13" s="60"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
-        <v>22</v>
+      <c r="A14" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="44"/>
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
@@ -2966,16 +3112,16 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
       <c r="AB14" s="45" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AC14" s="44"/>
       <c r="AD14" s="44"/>
@@ -3032,24 +3178,24 @@
       <c r="CC14" s="44"/>
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
-      <c r="CF14" s="80"/>
+      <c r="CF14" s="60"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
-        <v>23</v>
+      <c r="A15" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
@@ -3058,20 +3204,20 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="88"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="68"/>
       <c r="AB15" s="44"/>
       <c r="AC15" s="45" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AD15" s="45" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AE15" s="44"/>
       <c r="AF15" s="44"/>
@@ -3079,13 +3225,13 @@
       <c r="AH15" s="44"/>
       <c r="AI15" s="44"/>
       <c r="AJ15" s="46" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AK15" s="46" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AL15" s="44" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
@@ -3132,22 +3278,22 @@
       <c r="CC15" s="44"/>
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
-      <c r="CF15" s="80"/>
+      <c r="CF15" s="60"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="9"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
@@ -3156,14 +3302,14 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="88"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="68"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
@@ -3220,22 +3366,22 @@
       <c r="CC16" s="44"/>
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
-      <c r="CF16" s="80"/>
+      <c r="CF16" s="60"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="9"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
       <c r="L17" s="44"/>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
@@ -3244,14 +3390,14 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="88"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="68"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
@@ -3261,19 +3407,19 @@
       <c r="AH17" s="44"/>
       <c r="AI17" s="44"/>
       <c r="AJ17" s="49" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AK17" s="49" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AL17" s="49" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AM17" s="49" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AN17" s="49" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AO17" s="49"/>
       <c r="AP17" s="49"/>
@@ -3318,22 +3464,22 @@
       <c r="CC17" s="44"/>
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
-      <c r="CF17" s="80"/>
+      <c r="CF17" s="60"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
@@ -3342,14 +3488,14 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="88"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="68"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
@@ -3364,13 +3510,13 @@
       <c r="AM18" s="49"/>
       <c r="AN18" s="44"/>
       <c r="AO18" s="44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AP18" s="44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AQ18" s="44" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AR18" s="44"/>
       <c r="AS18" s="44"/>
@@ -3412,22 +3558,22 @@
       <c r="CC18" s="44"/>
       <c r="CD18" s="44"/>
       <c r="CE18" s="44"/>
-      <c r="CF18" s="80"/>
+      <c r="CF18" s="60"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
@@ -3436,14 +3582,14 @@
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="88"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="68"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
@@ -3460,17 +3606,17 @@
       <c r="AO19" s="44"/>
       <c r="AP19" s="44"/>
       <c r="AQ19" s="44"/>
-      <c r="AR19" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS19" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT19" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU19" s="60" t="s">
-        <v>54</v>
+      <c r="AR19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU19" s="54" t="s">
+        <v>40</v>
       </c>
       <c r="AV19" s="44"/>
       <c r="AW19" s="44"/>
@@ -3508,22 +3654,22 @@
       <c r="CC19" s="44"/>
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
-      <c r="CF19" s="80"/>
+      <c r="CF19" s="60"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>43</v>
+      <c r="A20" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
@@ -3532,14 +3678,14 @@
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="88"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="68"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
@@ -3568,10 +3714,10 @@
       <c r="BA20" s="44"/>
       <c r="BB20" s="44"/>
       <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
+      <c r="BD20" s="49"/>
+      <c r="BE20" s="49"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
       <c r="BH20" s="44"/>
       <c r="BI20" s="44"/>
       <c r="BJ20" s="44"/>
@@ -3596,22 +3742,22 @@
       <c r="CC20" s="44"/>
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
-      <c r="CF20" s="80"/>
+      <c r="CF20" s="60"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>44</v>
+      <c r="A21" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
@@ -3620,14 +3766,14 @@
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="88"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="68"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
@@ -3636,15 +3782,11 @@
       <c r="AG21" s="44"/>
       <c r="AH21" s="44"/>
       <c r="AI21" s="44"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN21" s="44" t="s">
-        <v>55</v>
-      </c>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
       <c r="AO21" s="44"/>
       <c r="AP21" s="44"/>
       <c r="AQ21" s="44"/>
@@ -3688,22 +3830,22 @@
       <c r="CC21" s="44"/>
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
-      <c r="CF21" s="80"/>
+      <c r="CF21" s="60"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
-        <v>45</v>
+      <c r="A22" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
@@ -3712,14 +3854,14 @@
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="88"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="68"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
@@ -3728,27 +3870,31 @@
       <c r="AG22" s="44"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
       <c r="AV22" s="44"/>
       <c r="AW22" s="44"/>
       <c r="AX22" s="44"/>
       <c r="AY22" s="44"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="3"/>
+      <c r="AZ22" s="44"/>
+      <c r="BA22" s="44"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
       <c r="BE22" s="44"/>
       <c r="BF22" s="44"/>
       <c r="BG22" s="44"/>
@@ -3776,22 +3922,22 @@
       <c r="CC22" s="44"/>
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
-      <c r="CF22" s="80"/>
+      <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>46</v>
+      <c r="A23" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
@@ -3800,14 +3946,14 @@
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="88"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="68"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
@@ -3818,35 +3964,28 @@
       <c r="AI23" s="44"/>
       <c r="AJ23" s="44"/>
       <c r="AK23" s="44"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="62"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
       <c r="AW23" s="44"/>
       <c r="AX23" s="44"/>
       <c r="AY23" s="44"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
       <c r="BD23" s="44"/>
       <c r="BE23" s="44"/>
       <c r="BF23" s="44"/>
       <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
       <c r="BI23" s="44"/>
       <c r="BJ23" s="44"/>
       <c r="BK23" s="44"/>
@@ -3870,22 +4009,22 @@
       <c r="CC23" s="44"/>
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
-      <c r="CF23" s="80"/>
+      <c r="CF23" s="60"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>47</v>
+      <c r="A24" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
       <c r="N24" s="44"/>
@@ -3894,14 +4033,14 @@
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="88"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="68"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="44"/>
@@ -3918,28 +4057,26 @@
       <c r="AO24" s="44"/>
       <c r="AP24" s="44"/>
       <c r="AQ24" s="44"/>
-      <c r="AR24" s="44" t="s">
-        <v>55</v>
-      </c>
+      <c r="AR24" s="44"/>
       <c r="AS24" s="44"/>
       <c r="AT24" s="44"/>
       <c r="AU24" s="44"/>
       <c r="AV24" s="44"/>
       <c r="AW24" s="44"/>
       <c r="AX24" s="44"/>
-      <c r="AY24" s="34"/>
+      <c r="AY24" s="44"/>
       <c r="AZ24" s="44"/>
       <c r="BA24" s="44"/>
       <c r="BB24" s="44"/>
       <c r="BC24" s="44"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="46"/>
-      <c r="BG24" s="46"/>
-      <c r="BH24" s="46"/>
-      <c r="BI24" s="46"/>
-      <c r="BJ24" s="46"/>
-      <c r="BK24" s="46"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+      <c r="BF24" s="44"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="44"/>
+      <c r="BI24" s="44"/>
+      <c r="BJ24" s="44"/>
+      <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
       <c r="BM24" s="44"/>
       <c r="BN24" s="44"/>
@@ -3960,22 +4097,22 @@
       <c r="CC24" s="44"/>
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
-      <c r="CF24" s="80"/>
+      <c r="CF24" s="60"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>48</v>
+      <c r="A25" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
       <c r="N25" s="44"/>
@@ -3984,14 +4121,14 @@
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="88"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
       <c r="AD25" s="44"/>
@@ -4011,11 +4148,13 @@
       <c r="AR25" s="44"/>
       <c r="AS25" s="44"/>
       <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
+      <c r="AU25" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="AV25" s="44"/>
       <c r="AW25" s="44"/>
       <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
+      <c r="AY25" s="34"/>
       <c r="AZ25" s="44"/>
       <c r="BA25" s="44"/>
       <c r="BB25" s="44"/>
@@ -4032,14 +4171,14 @@
       <c r="BM25" s="44"/>
       <c r="BN25" s="44"/>
       <c r="BO25" s="44"/>
-      <c r="BP25" s="65"/>
-      <c r="BQ25" s="65"/>
-      <c r="BR25" s="65"/>
-      <c r="BS25" s="65"/>
-      <c r="BT25" s="65"/>
-      <c r="BU25" s="65"/>
-      <c r="BV25" s="65"/>
-      <c r="BW25" s="65"/>
+      <c r="BP25" s="44"/>
+      <c r="BQ25" s="44"/>
+      <c r="BR25" s="44"/>
+      <c r="BS25" s="44"/>
+      <c r="BT25" s="44"/>
+      <c r="BU25" s="44"/>
+      <c r="BV25" s="44"/>
+      <c r="BW25" s="44"/>
       <c r="BX25" s="44"/>
       <c r="BY25" s="44"/>
       <c r="BZ25" s="44"/>
@@ -4048,22 +4187,22 @@
       <c r="CC25" s="44"/>
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
-      <c r="CF25" s="80"/>
+      <c r="CF25" s="60"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>49</v>
+      <c r="A26" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
       <c r="N26" s="44"/>
@@ -4072,14 +4211,14 @@
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="88"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="68"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="44"/>
@@ -4108,26 +4247,26 @@
       <c r="BA26" s="44"/>
       <c r="BB26" s="44"/>
       <c r="BC26" s="44"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="45"/>
-      <c r="BF26" s="45"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="45"/>
-      <c r="BK26" s="45"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="44"/>
+      <c r="BF26" s="44"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="44"/>
+      <c r="BI26" s="44"/>
+      <c r="BJ26" s="44"/>
+      <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
       <c r="BM26" s="44"/>
       <c r="BN26" s="44"/>
       <c r="BO26" s="44"/>
-      <c r="BP26" s="44"/>
-      <c r="BQ26" s="44"/>
-      <c r="BR26" s="44"/>
-      <c r="BS26" s="44"/>
-      <c r="BT26" s="44"/>
-      <c r="BU26" s="44"/>
-      <c r="BV26" s="44"/>
-      <c r="BW26" s="44"/>
+      <c r="BP26" s="57"/>
+      <c r="BQ26" s="57"/>
+      <c r="BR26" s="57"/>
+      <c r="BS26" s="57"/>
+      <c r="BT26" s="57"/>
+      <c r="BU26" s="57"/>
+      <c r="BV26" s="57"/>
+      <c r="BW26" s="57"/>
       <c r="BX26" s="44"/>
       <c r="BY26" s="44"/>
       <c r="BZ26" s="44"/>
@@ -4136,22 +4275,22 @@
       <c r="CC26" s="44"/>
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
-      <c r="CF26" s="80"/>
+      <c r="CF26" s="60"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>42</v>
+      <c r="A27" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
       <c r="N27" s="44"/>
@@ -4160,14 +4299,14 @@
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="88"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="68"/>
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
       <c r="AD27" s="44"/>
@@ -4180,14 +4319,14 @@
       <c r="AK27" s="44"/>
       <c r="AL27" s="44"/>
       <c r="AM27" s="44"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="44"/>
+      <c r="AT27" s="44"/>
+      <c r="AU27" s="44"/>
       <c r="AV27" s="44"/>
       <c r="AW27" s="44"/>
       <c r="AX27" s="44"/>
@@ -4224,22 +4363,22 @@
       <c r="CC27" s="44"/>
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
-      <c r="CF27" s="80"/>
+      <c r="CF27" s="60"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>50</v>
+      <c r="A28" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
       <c r="N28" s="44"/>
@@ -4248,14 +4387,14 @@
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="88"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="68"/>
       <c r="AB28" s="44"/>
       <c r="AC28" s="44"/>
       <c r="AD28" s="44"/>
@@ -4268,25 +4407,37 @@
       <c r="AK28" s="44"/>
       <c r="AL28" s="44"/>
       <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP28" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ28" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR28" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS28" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT28" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="AU28" s="44"/>
-      <c r="AV28" s="3"/>
+      <c r="AV28" s="44"/>
       <c r="AW28" s="44"/>
       <c r="AX28" s="44"/>
       <c r="AY28" s="44"/>
-      <c r="AZ28" s="45"/>
-      <c r="BA28" s="45"/>
-      <c r="BB28" s="45"/>
-      <c r="BC28" s="45"/>
-      <c r="BD28" s="45"/>
-      <c r="BE28" s="45"/>
-      <c r="BF28" s="45"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
       <c r="BG28" s="44"/>
       <c r="BH28" s="44"/>
       <c r="BI28" s="44"/>
@@ -4312,22 +4463,22 @@
       <c r="CC28" s="44"/>
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
-      <c r="CF28" s="80"/>
+      <c r="CF28" s="60"/>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
       <c r="N29" s="44"/>
@@ -4336,14 +4487,14 @@
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="88"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="68"/>
       <c r="AB29" s="44"/>
       <c r="AC29" s="44"/>
       <c r="AD29" s="44"/>
@@ -4356,25 +4507,41 @@
       <c r="AK29" s="44"/>
       <c r="AL29" s="44"/>
       <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
+      <c r="AN29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="AV29" s="44"/>
       <c r="AW29" s="44"/>
       <c r="AX29" s="44"/>
       <c r="AY29" s="44"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="45"/>
+      <c r="BB29" s="45"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
       <c r="BG29" s="44"/>
       <c r="BH29" s="44"/>
       <c r="BI29" s="44"/>
@@ -4400,24 +4567,22 @@
       <c r="CC29" s="44"/>
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
-      <c r="CF29" s="80"/>
+      <c r="CF29" s="60"/>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A30" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="44"/>
       <c r="M30" s="44"/>
       <c r="N30" s="44"/>
@@ -4426,14 +4591,14 @@
       <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="88"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="68"/>
       <c r="AB30" s="44"/>
       <c r="AC30" s="44"/>
       <c r="AD30" s="44"/>
@@ -4461,11 +4626,11 @@
       <c r="AZ30" s="44"/>
       <c r="BA30" s="44"/>
       <c r="BB30" s="44"/>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="44"/>
+      <c r="BC30" s="45"/>
+      <c r="BD30" s="45"/>
+      <c r="BE30" s="45"/>
+      <c r="BF30" s="45"/>
+      <c r="BG30" s="45"/>
       <c r="BH30" s="44"/>
       <c r="BI30" s="44"/>
       <c r="BJ30" s="44"/>
@@ -4490,48 +4655,38 @@
       <c r="CC30" s="44"/>
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
-      <c r="CF30" s="80"/>
+      <c r="CF30" s="60"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="49" t="s">
-        <v>53</v>
-      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
       <c r="P31" s="44"/>
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="88"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="68"/>
       <c r="AB31" s="44"/>
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
@@ -4561,9 +4716,9 @@
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
       <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
+      <c r="BE31" s="46"/>
+      <c r="BF31" s="46"/>
+      <c r="BG31" s="46"/>
       <c r="BH31" s="44"/>
       <c r="BI31" s="44"/>
       <c r="BJ31" s="44"/>
@@ -4588,48 +4743,38 @@
       <c r="CC31" s="44"/>
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
-      <c r="CF31" s="80"/>
+      <c r="CF31" s="60"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A32" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="O32" s="45" t="s">
-        <v>53</v>
-      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="88"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="68"/>
       <c r="AB32" s="44"/>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -4655,11 +4800,11 @@
       <c r="AX32" s="44"/>
       <c r="AY32" s="44"/>
       <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
+      <c r="BA32" s="46"/>
+      <c r="BB32" s="46"/>
+      <c r="BC32" s="46"/>
+      <c r="BD32" s="46"/>
+      <c r="BE32" s="3"/>
       <c r="BF32" s="44"/>
       <c r="BG32" s="44"/>
       <c r="BH32" s="44"/>
@@ -4686,54 +4831,40 @@
       <c r="CC32" s="44"/>
       <c r="CD32" s="44"/>
       <c r="CE32" s="44"/>
-      <c r="CF32" s="80"/>
+      <c r="CF32" s="60"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="O33" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
       <c r="P33" s="44"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC33" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="T33" s="66"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
       <c r="AD33" s="44"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
@@ -4752,7 +4883,7 @@
       <c r="AS33" s="44"/>
       <c r="AT33" s="44"/>
       <c r="AU33" s="44"/>
-      <c r="AV33" s="3"/>
+      <c r="AV33" s="44"/>
       <c r="AW33" s="44"/>
       <c r="AX33" s="44"/>
       <c r="AY33" s="44"/>
@@ -4788,24 +4919,24 @@
       <c r="CC33" s="44"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
-      <c r="CF33" s="80"/>
+      <c r="CF33" s="60"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
-        <v>29</v>
+      <c r="A34" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="44"/>
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
@@ -4814,15 +4945,15 @@
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="47"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="44"/>
       <c r="AC34" s="44"/>
       <c r="AD34" s="44"/>
       <c r="AE34" s="44"/>
@@ -4838,11 +4969,11 @@
       <c r="AO34" s="44"/>
       <c r="AP34" s="44"/>
       <c r="AQ34" s="44"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="3"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
       <c r="AW34" s="44"/>
       <c r="AX34" s="44"/>
       <c r="AY34" s="44"/>
@@ -4854,10 +4985,10 @@
       <c r="BE34" s="44"/>
       <c r="BF34" s="44"/>
       <c r="BG34" s="44"/>
-      <c r="BH34" s="46"/>
-      <c r="BI34" s="46"/>
-      <c r="BJ34" s="46"/>
-      <c r="BK34" s="46"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
       <c r="BL34" s="44"/>
       <c r="BM34" s="44"/>
       <c r="BN34" s="44"/>
@@ -4878,48 +5009,52 @@
       <c r="CC34" s="44"/>
       <c r="CD34" s="44"/>
       <c r="CE34" s="44"/>
-      <c r="CF34" s="80"/>
+      <c r="CF34" s="60"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="49" t="s">
+        <v>39</v>
+      </c>
       <c r="P35" s="44"/>
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="88"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="68"/>
       <c r="AB35" s="44"/>
       <c r="AC35" s="44"/>
-      <c r="AD35" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE35" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
       <c r="AF35" s="44"/>
       <c r="AG35" s="44"/>
       <c r="AH35" s="44"/>
@@ -4940,18 +5075,18 @@
       <c r="AW35" s="44"/>
       <c r="AX35" s="44"/>
       <c r="AY35" s="44"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
       <c r="BD35" s="44"/>
       <c r="BE35" s="44"/>
       <c r="BF35" s="44"/>
       <c r="BG35" s="44"/>
-      <c r="BH35" s="46"/>
-      <c r="BI35" s="46"/>
-      <c r="BJ35" s="46"/>
-      <c r="BK35" s="46"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
       <c r="BL35" s="44"/>
       <c r="BM35" s="44"/>
       <c r="BN35" s="44"/>
@@ -4972,120 +5107,96 @@
       <c r="CC35" s="44"/>
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
-      <c r="CF35" s="80"/>
+      <c r="CF35" s="60"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="L36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="50" t="s">
-        <v>53</v>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="P36" s="44"/>
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD36" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE36" s="50" t="s">
-        <v>53</v>
-      </c>
+      <c r="T36" s="66"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
       <c r="AF36" s="44"/>
       <c r="AG36" s="44"/>
       <c r="AH36" s="44"/>
       <c r="AI36" s="44"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="50"/>
-      <c r="AL36" s="50"/>
-      <c r="AM36" s="50"/>
-      <c r="AN36" s="50"/>
-      <c r="AO36" s="50"/>
-      <c r="AP36" s="50"/>
-      <c r="AQ36" s="50"/>
-      <c r="AR36" s="50"/>
-      <c r="AS36" s="50"/>
-      <c r="AT36" s="50"/>
-      <c r="AU36" s="50"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="44"/>
+      <c r="AQ36" s="44"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="44"/>
+      <c r="AT36" s="44"/>
+      <c r="AU36" s="44"/>
       <c r="AV36" s="44"/>
       <c r="AW36" s="44"/>
       <c r="AX36" s="44"/>
       <c r="AY36" s="44"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="50"/>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="50"/>
-      <c r="BE36" s="50"/>
-      <c r="BF36" s="50"/>
-      <c r="BG36" s="50"/>
-      <c r="BH36" s="50"/>
-      <c r="BI36" s="50"/>
-      <c r="BJ36" s="50"/>
-      <c r="BK36" s="50"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
+      <c r="BB36" s="44"/>
+      <c r="BC36" s="44"/>
+      <c r="BD36" s="44"/>
+      <c r="BE36" s="44"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="44"/>
+      <c r="BH36" s="44"/>
+      <c r="BI36" s="44"/>
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44"/>
       <c r="BL36" s="44"/>
       <c r="BM36" s="44"/>
       <c r="BN36" s="44"/>
       <c r="BO36" s="44"/>
-      <c r="BP36" s="50"/>
-      <c r="BQ36" s="50"/>
-      <c r="BR36" s="50"/>
-      <c r="BS36" s="50"/>
-      <c r="BT36" s="50"/>
-      <c r="BU36" s="50"/>
-      <c r="BV36" s="50"/>
-      <c r="BW36" s="50"/>
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44"/>
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44"/>
+      <c r="BT36" s="44"/>
+      <c r="BU36" s="44"/>
+      <c r="BV36" s="44"/>
+      <c r="BW36" s="44"/>
       <c r="BX36" s="44"/>
       <c r="BY36" s="44"/>
       <c r="BZ36" s="44"/>
@@ -5094,14 +5205,14 @@
       <c r="CC36" s="44"/>
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
-      <c r="CF36" s="80"/>
+      <c r="CF36" s="60"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
-        <v>32</v>
+      <c r="A37" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="44"/>
@@ -5112,36 +5223,46 @@
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
+      <c r="L37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="P37" s="44"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="88"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="45" t="s">
-        <v>53</v>
-      </c>
+      <c r="T37" s="66"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
       <c r="AF37" s="44"/>
       <c r="AG37" s="44"/>
       <c r="AH37" s="44"/>
       <c r="AI37" s="44"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="45"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
       <c r="AN37" s="44"/>
       <c r="AO37" s="44"/>
       <c r="AP37" s="44"/>
@@ -5150,7 +5271,7 @@
       <c r="AS37" s="44"/>
       <c r="AT37" s="44"/>
       <c r="AU37" s="44"/>
-      <c r="AV37" s="44"/>
+      <c r="AV37" s="3"/>
       <c r="AW37" s="44"/>
       <c r="AX37" s="44"/>
       <c r="AY37" s="44"/>
@@ -5186,13 +5307,15 @@
       <c r="CC37" s="44"/>
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
-      <c r="CF37" s="80"/>
+      <c r="CF37" s="60"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="16"/>
+      <c r="A38" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
@@ -5210,18 +5333,18 @@
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="44"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="47"/>
       <c r="AC38" s="44"/>
       <c r="AD38" s="44"/>
-      <c r="AE38" s="48"/>
+      <c r="AE38" s="44"/>
       <c r="AF38" s="44"/>
       <c r="AG38" s="44"/>
       <c r="AH38" s="44"/>
@@ -5234,11 +5357,11 @@
       <c r="AO38" s="44"/>
       <c r="AP38" s="44"/>
       <c r="AQ38" s="44"/>
-      <c r="AR38" s="44"/>
-      <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-      <c r="AV38" s="44"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="49"/>
+      <c r="AU38" s="49"/>
+      <c r="AV38" s="3"/>
       <c r="AW38" s="44"/>
       <c r="AX38" s="44"/>
       <c r="AY38" s="44"/>
@@ -5274,13 +5397,15 @@
       <c r="CC38" s="44"/>
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
-      <c r="CF38" s="80"/>
+      <c r="CF38" s="60"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="16"/>
+      <c r="A39" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="C39" s="9"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
@@ -5298,18 +5423,22 @@
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="88"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="68"/>
       <c r="AB39" s="44"/>
       <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
+      <c r="AD39" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE39" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AF39" s="44"/>
       <c r="AG39" s="44"/>
       <c r="AH39" s="44"/>
@@ -5330,10 +5459,10 @@
       <c r="AW39" s="44"/>
       <c r="AX39" s="44"/>
       <c r="AY39" s="44"/>
-      <c r="AZ39" s="44"/>
-      <c r="BA39" s="44"/>
-      <c r="BB39" s="44"/>
-      <c r="BC39" s="44"/>
+      <c r="AZ39" s="49"/>
+      <c r="BA39" s="49"/>
+      <c r="BB39" s="49"/>
+      <c r="BC39" s="49"/>
       <c r="BD39" s="44"/>
       <c r="BE39" s="44"/>
       <c r="BF39" s="44"/>
@@ -5354,203 +5483,589 @@
       <c r="BU39" s="44"/>
       <c r="BV39" s="44"/>
       <c r="BW39" s="44"/>
-      <c r="BX39" s="50"/>
-      <c r="BY39" s="50"/>
-      <c r="BZ39" s="50"/>
-      <c r="CA39" s="50"/>
+      <c r="BX39" s="44"/>
+      <c r="BY39" s="44"/>
+      <c r="BZ39" s="44"/>
+      <c r="CA39" s="44"/>
       <c r="CB39" s="44"/>
       <c r="CC39" s="44"/>
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
-      <c r="CF39" s="80"/>
+      <c r="CF39" s="60"/>
     </row>
-    <row r="40" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="50" t="s">
+        <v>39</v>
+      </c>
       <c r="P40" s="44"/>
       <c r="Q40" s="44"/>
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="91"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="12"/>
-      <c r="AS40" s="13"/>
-      <c r="AT40" s="13"/>
-      <c r="AU40" s="13"/>
-      <c r="AV40" s="13"/>
-      <c r="AW40" s="13"/>
-      <c r="AX40" s="13"/>
-      <c r="AY40" s="14"/>
-      <c r="AZ40" s="12"/>
-      <c r="BA40" s="13"/>
-      <c r="BB40" s="13"/>
-      <c r="BC40" s="13"/>
-      <c r="BD40" s="13"/>
-      <c r="BE40" s="13"/>
-      <c r="BF40" s="13"/>
-      <c r="BG40" s="14"/>
-      <c r="BH40" s="12"/>
-      <c r="BI40" s="13"/>
-      <c r="BJ40" s="13"/>
-      <c r="BK40" s="13"/>
-      <c r="BL40" s="13"/>
-      <c r="BM40" s="13"/>
-      <c r="BN40" s="13"/>
-      <c r="BO40" s="14"/>
-      <c r="BP40" s="12"/>
-      <c r="BQ40" s="13"/>
-      <c r="BR40" s="13"/>
-      <c r="BS40" s="13"/>
-      <c r="BT40" s="13"/>
-      <c r="BU40" s="13"/>
-      <c r="BV40" s="13"/>
-      <c r="BW40" s="14"/>
-      <c r="BX40" s="12"/>
-      <c r="BY40" s="13"/>
-      <c r="BZ40" s="13"/>
-      <c r="CA40" s="13"/>
-      <c r="CB40" s="13"/>
-      <c r="CC40" s="13"/>
-      <c r="CD40" s="13"/>
-      <c r="CE40" s="14"/>
-      <c r="CF40" s="80"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE40" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="50"/>
+      <c r="AL40" s="50"/>
+      <c r="AM40" s="50"/>
+      <c r="AN40" s="50"/>
+      <c r="AO40" s="50"/>
+      <c r="AP40" s="50"/>
+      <c r="AQ40" s="50"/>
+      <c r="AR40" s="50"/>
+      <c r="AS40" s="50"/>
+      <c r="AT40" s="50"/>
+      <c r="AU40" s="50"/>
+      <c r="AV40" s="44"/>
+      <c r="AW40" s="44"/>
+      <c r="AX40" s="44"/>
+      <c r="AY40" s="44"/>
+      <c r="AZ40" s="50"/>
+      <c r="BA40" s="50"/>
+      <c r="BB40" s="50"/>
+      <c r="BC40" s="50"/>
+      <c r="BD40" s="50"/>
+      <c r="BE40" s="50"/>
+      <c r="BF40" s="50"/>
+      <c r="BG40" s="50"/>
+      <c r="BH40" s="50"/>
+      <c r="BI40" s="50"/>
+      <c r="BJ40" s="50"/>
+      <c r="BK40" s="50"/>
+      <c r="BL40" s="44"/>
+      <c r="BM40" s="44"/>
+      <c r="BN40" s="44"/>
+      <c r="BO40" s="44"/>
+      <c r="BP40" s="50"/>
+      <c r="BQ40" s="50"/>
+      <c r="BR40" s="50"/>
+      <c r="BS40" s="50"/>
+      <c r="BT40" s="50"/>
+      <c r="BU40" s="50"/>
+      <c r="BV40" s="50"/>
+      <c r="BW40" s="50"/>
+      <c r="BX40" s="44"/>
+      <c r="BY40" s="44"/>
+      <c r="BZ40" s="44"/>
+      <c r="CA40" s="44"/>
+      <c r="CB40" s="44"/>
+      <c r="CC40" s="44"/>
+      <c r="CD40" s="44"/>
+      <c r="CE40" s="44"/>
+      <c r="CF40" s="60"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="45"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="44"/>
+      <c r="AQ41" s="44"/>
+      <c r="AR41" s="44"/>
+      <c r="AS41" s="44"/>
+      <c r="AT41" s="44"/>
+      <c r="AU41" s="44"/>
+      <c r="AV41" s="44"/>
+      <c r="AW41" s="44"/>
+      <c r="AX41" s="44"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="44"/>
+      <c r="BA41" s="44"/>
+      <c r="BB41" s="44"/>
+      <c r="BC41" s="44"/>
+      <c r="BD41" s="44"/>
+      <c r="BE41" s="44"/>
+      <c r="BF41" s="44"/>
+      <c r="BG41" s="44"/>
+      <c r="BH41" s="44"/>
+      <c r="BI41" s="44"/>
+      <c r="BJ41" s="44"/>
+      <c r="BK41" s="44"/>
+      <c r="BL41" s="44"/>
+      <c r="BM41" s="44"/>
+      <c r="BN41" s="44"/>
+      <c r="BO41" s="44"/>
+      <c r="BP41" s="44"/>
+      <c r="BQ41" s="44"/>
+      <c r="BR41" s="44"/>
+      <c r="BS41" s="44"/>
+      <c r="BT41" s="44"/>
+      <c r="BU41" s="44"/>
+      <c r="BV41" s="44"/>
+      <c r="BW41" s="44"/>
+      <c r="BX41" s="44"/>
+      <c r="BY41" s="44"/>
+      <c r="BZ41" s="44"/>
+      <c r="CA41" s="44"/>
+      <c r="CB41" s="44"/>
+      <c r="CC41" s="44"/>
+      <c r="CD41" s="44"/>
+      <c r="CE41" s="44"/>
+      <c r="CF41" s="60"/>
+    </row>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="44"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
+      <c r="AW42" s="44"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="44"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="44"/>
+      <c r="BM42" s="44"/>
+      <c r="BN42" s="44"/>
+      <c r="BO42" s="44"/>
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="44"/>
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="44"/>
+      <c r="BU42" s="44"/>
+      <c r="BV42" s="44"/>
+      <c r="BW42" s="44"/>
+      <c r="BX42" s="44"/>
+      <c r="BY42" s="44"/>
+      <c r="BZ42" s="44"/>
+      <c r="CA42" s="44"/>
+      <c r="CB42" s="44"/>
+      <c r="CC42" s="44"/>
+      <c r="CD42" s="44"/>
+      <c r="CE42" s="44"/>
+      <c r="CF42" s="60"/>
+    </row>
+    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A43" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="44"/>
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
+      <c r="AW43" s="44"/>
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="44"/>
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="44"/>
+      <c r="BD43" s="44"/>
+      <c r="BE43" s="44"/>
+      <c r="BF43" s="44"/>
+      <c r="BG43" s="44"/>
+      <c r="BH43" s="44"/>
+      <c r="BI43" s="44"/>
+      <c r="BJ43" s="44"/>
+      <c r="BK43" s="44"/>
+      <c r="BL43" s="44"/>
+      <c r="BM43" s="44"/>
+      <c r="BN43" s="44"/>
+      <c r="BO43" s="44"/>
+      <c r="BP43" s="44"/>
+      <c r="BQ43" s="44"/>
+      <c r="BR43" s="44"/>
+      <c r="BS43" s="44"/>
+      <c r="BT43" s="44"/>
+      <c r="BU43" s="44"/>
+      <c r="BV43" s="44"/>
+      <c r="BW43" s="44"/>
+      <c r="BX43" s="50"/>
+      <c r="BY43" s="50"/>
+      <c r="BZ43" s="50"/>
+      <c r="CA43" s="50"/>
+      <c r="CB43" s="44"/>
+      <c r="CC43" s="44"/>
+      <c r="CD43" s="44"/>
+      <c r="CE43" s="44"/>
+      <c r="CF43" s="60"/>
+    </row>
+    <row r="44" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="13"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="13"/>
+      <c r="AW44" s="13"/>
+      <c r="AX44" s="13"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="13"/>
+      <c r="BB44" s="13"/>
+      <c r="BC44" s="13"/>
+      <c r="BD44" s="13"/>
+      <c r="BE44" s="13"/>
+      <c r="BF44" s="13"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="13"/>
+      <c r="BJ44" s="13"/>
+      <c r="BK44" s="13"/>
+      <c r="BL44" s="13"/>
+      <c r="BM44" s="13"/>
+      <c r="BN44" s="13"/>
+      <c r="BO44" s="14"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="13"/>
+      <c r="BS44" s="13"/>
+      <c r="BT44" s="13"/>
+      <c r="BU44" s="13"/>
+      <c r="BV44" s="13"/>
+      <c r="BW44" s="14"/>
+      <c r="BX44" s="12"/>
+      <c r="BY44" s="13"/>
+      <c r="BZ44" s="13"/>
+      <c r="CA44" s="13"/>
+      <c r="CB44" s="13"/>
+      <c r="CC44" s="13"/>
+      <c r="CD44" s="13"/>
+      <c r="CE44" s="14"/>
+      <c r="CF44" s="60"/>
+    </row>
+    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A45" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="79"/>
-      <c r="AL41" s="79"/>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
-      <c r="AO41" s="79"/>
-      <c r="AP41" s="79"/>
-      <c r="AQ41" s="79"/>
-      <c r="AR41" s="79"/>
-      <c r="AS41" s="79"/>
-      <c r="AT41" s="79"/>
-      <c r="AU41" s="79"/>
-      <c r="AV41" s="79"/>
-      <c r="AW41" s="79"/>
-      <c r="AX41" s="79"/>
-      <c r="AY41" s="79"/>
-      <c r="AZ41" s="79"/>
-      <c r="BA41" s="79"/>
-      <c r="BB41" s="79"/>
-      <c r="BC41" s="79"/>
-      <c r="BD41" s="79"/>
-      <c r="BE41" s="79"/>
-      <c r="BF41" s="79"/>
-      <c r="BG41" s="79"/>
-      <c r="BH41" s="79"/>
-      <c r="BI41" s="79"/>
-      <c r="BJ41" s="79"/>
-      <c r="BK41" s="79"/>
-      <c r="BL41" s="79"/>
-      <c r="BM41" s="79"/>
-      <c r="BN41" s="79"/>
-      <c r="BO41" s="79"/>
-      <c r="BP41" s="79"/>
-      <c r="BQ41" s="79"/>
-      <c r="BR41" s="79"/>
-      <c r="BS41" s="79"/>
-      <c r="BT41" s="79"/>
-      <c r="BU41" s="79"/>
-      <c r="BV41" s="79"/>
-      <c r="BW41" s="79"/>
-      <c r="BX41" s="79"/>
-      <c r="BY41" s="79"/>
-      <c r="BZ41" s="79"/>
-      <c r="CA41" s="79"/>
-      <c r="CB41" s="79"/>
-      <c r="CC41" s="79"/>
-      <c r="CD41" s="79"/>
-      <c r="CE41" s="79"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
+      <c r="Z45" s="59"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="59"/>
+      <c r="AE45" s="59"/>
+      <c r="AF45" s="59"/>
+      <c r="AG45" s="59"/>
+      <c r="AH45" s="59"/>
+      <c r="AI45" s="59"/>
+      <c r="AJ45" s="59"/>
+      <c r="AK45" s="59"/>
+      <c r="AL45" s="59"/>
+      <c r="AM45" s="59"/>
+      <c r="AN45" s="59"/>
+      <c r="AO45" s="59"/>
+      <c r="AP45" s="59"/>
+      <c r="AQ45" s="59"/>
+      <c r="AR45" s="59"/>
+      <c r="AS45" s="59"/>
+      <c r="AT45" s="59"/>
+      <c r="AU45" s="59"/>
+      <c r="AV45" s="59"/>
+      <c r="AW45" s="59"/>
+      <c r="AX45" s="59"/>
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="59"/>
+      <c r="BA45" s="59"/>
+      <c r="BB45" s="59"/>
+      <c r="BC45" s="59"/>
+      <c r="BD45" s="59"/>
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="59"/>
+      <c r="BG45" s="59"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="59"/>
+      <c r="BJ45" s="59"/>
+      <c r="BK45" s="59"/>
+      <c r="BL45" s="59"/>
+      <c r="BM45" s="59"/>
+      <c r="BN45" s="59"/>
+      <c r="BO45" s="59"/>
+      <c r="BP45" s="59"/>
+      <c r="BQ45" s="59"/>
+      <c r="BR45" s="59"/>
+      <c r="BS45" s="59"/>
+      <c r="BT45" s="59"/>
+      <c r="BU45" s="59"/>
+      <c r="BV45" s="59"/>
+      <c r="BW45" s="59"/>
+      <c r="BX45" s="59"/>
+      <c r="BY45" s="59"/>
+      <c r="BZ45" s="59"/>
+      <c r="CA45" s="59"/>
+      <c r="CB45" s="59"/>
+      <c r="CC45" s="59"/>
+      <c r="CD45" s="59"/>
+      <c r="CE45" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A41:CE41"/>
-    <mergeCell ref="CF7:CF40"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="T9:AA40"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D5:AQ6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="AR5:CE6"/>
     <mergeCell ref="AJ7:AM7"/>
     <mergeCell ref="AN7:AQ7"/>
@@ -5565,17 +6080,21 @@
     <mergeCell ref="BP7:BS7"/>
     <mergeCell ref="BX7:CA7"/>
     <mergeCell ref="CB7:CE7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D5:AQ6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A45:CE45"/>
+    <mergeCell ref="CF7:CF44"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="T9:AA44"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B9:B40">
+  <conditionalFormatting sqref="B9:B44">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B9)))</formula>
     </cfRule>
@@ -5601,26 +6120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -5833,32 +6332,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5875,4 +6369,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_Modele_PlanningLundiMardi.xlsx
+++ b/documentation/3_2_Modele_PlanningLundiMardi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-bersier\projet-306-tercier-morales-bersier\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloua\Documents\projet-306-tercier-morales-bersier\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1BE85-9E06-48A7-B8B1-D8B9EE814E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05747F-F3B8-4ED8-A122-591C88C662CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>Tous</t>
   </si>
@@ -1076,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1279,6 +1279,50 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1331,55 +1375,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1864,29 +1861,29 @@
   <dimension ref="A1:CF45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="AU9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="BP36" sqref="BP36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4" max="83" width="2.140625" style="2" customWidth="1"/>
-    <col min="84" max="84" width="3.140625" style="3" customWidth="1"/>
-    <col min="85" max="297" width="9.140625" style="3" customWidth="1"/>
-    <col min="298" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="66.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="3" customWidth="1"/>
+    <col min="4" max="83" width="2.1796875" style="2" customWidth="1"/>
+    <col min="84" max="84" width="3.1796875" style="3" customWidth="1"/>
+    <col min="85" max="297" width="9.1796875" style="3" customWidth="1"/>
+    <col min="298" max="16384" width="11.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:84" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1930,12 +1927,12 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1977,7 +1974,7 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:84" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -2024,12 +2021,12 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2076,184 +2073,184 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="77">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="66">
         <v>0</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="77"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="77"/>
-      <c r="AW5" s="77"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BF5" s="77"/>
-      <c r="BG5" s="77"/>
-      <c r="BH5" s="77"/>
-      <c r="BI5" s="77"/>
-      <c r="BJ5" s="77"/>
-      <c r="BK5" s="77"/>
-      <c r="BL5" s="77"/>
-      <c r="BM5" s="77"/>
-      <c r="BN5" s="77"/>
-      <c r="BO5" s="77"/>
-      <c r="BP5" s="77"/>
-      <c r="BQ5" s="77"/>
-      <c r="BR5" s="77"/>
-      <c r="BS5" s="77"/>
-      <c r="BT5" s="77"/>
-      <c r="BU5" s="77"/>
-      <c r="BV5" s="77"/>
-      <c r="BW5" s="77"/>
-      <c r="BX5" s="77"/>
-      <c r="BY5" s="77"/>
-      <c r="BZ5" s="77"/>
-      <c r="CA5" s="77"/>
-      <c r="CB5" s="77"/>
-      <c r="CC5" s="77"/>
-      <c r="CD5" s="77"/>
-      <c r="CE5" s="77"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="66"/>
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="66"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="66"/>
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="66"/>
+      <c r="BT5" s="66"/>
+      <c r="BU5" s="66"/>
+      <c r="BV5" s="66"/>
+      <c r="BW5" s="66"/>
+      <c r="BX5" s="66"/>
+      <c r="BY5" s="66"/>
+      <c r="BZ5" s="66"/>
+      <c r="CA5" s="66"/>
+      <c r="CB5" s="66"/>
+      <c r="CC5" s="66"/>
+      <c r="CD5" s="66"/>
+      <c r="CE5" s="66"/>
     </row>
-    <row r="6" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="78"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="78"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="78"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="78"/>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="78"/>
-      <c r="BI6" s="78"/>
-      <c r="BJ6" s="78"/>
-      <c r="BK6" s="78"/>
-      <c r="BL6" s="78"/>
-      <c r="BM6" s="78"/>
-      <c r="BN6" s="78"/>
-      <c r="BO6" s="78"/>
-      <c r="BP6" s="78"/>
-      <c r="BQ6" s="78"/>
-      <c r="BR6" s="78"/>
-      <c r="BS6" s="78"/>
-      <c r="BT6" s="78"/>
-      <c r="BU6" s="78"/>
-      <c r="BV6" s="78"/>
-      <c r="BW6" s="78"/>
-      <c r="BX6" s="78"/>
-      <c r="BY6" s="78"/>
-      <c r="BZ6" s="78"/>
-      <c r="CA6" s="78"/>
-      <c r="CB6" s="78"/>
-      <c r="CC6" s="78"/>
-      <c r="CD6" s="78"/>
-      <c r="CE6" s="78"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
+      <c r="BQ6" s="67"/>
+      <c r="BR6" s="67"/>
+      <c r="BS6" s="67"/>
+      <c r="BT6" s="67"/>
+      <c r="BU6" s="67"/>
+      <c r="BV6" s="67"/>
+      <c r="BW6" s="67"/>
+      <c r="BX6" s="67"/>
+      <c r="BY6" s="67"/>
+      <c r="BZ6" s="67"/>
+      <c r="CA6" s="67"/>
+      <c r="CB6" s="67"/>
+      <c r="CC6" s="67"/>
+      <c r="CD6" s="67"/>
+      <c r="CE6" s="67"/>
     </row>
-    <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -2262,132 +2259,132 @@
       <c r="C7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74">
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="62">
         <v>45992</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="72" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="74">
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="62">
         <v>45993</v>
       </c>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="72" t="s">
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="74">
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="62">
         <v>45999</v>
       </c>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="72" t="s">
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="74">
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="62">
         <v>46000</v>
       </c>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="72" t="s">
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="74">
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="62">
         <v>46006</v>
       </c>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="72" t="s">
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="74">
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="62">
         <v>46007</v>
       </c>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="72" t="s">
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="74">
+      <c r="BA7" s="65"/>
+      <c r="BB7" s="65"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="62">
         <v>46027</v>
       </c>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="75"/>
-      <c r="BH7" s="72" t="s">
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="BI7" s="73"/>
-      <c r="BJ7" s="73"/>
-      <c r="BK7" s="73"/>
-      <c r="BL7" s="74">
+      <c r="BI7" s="65"/>
+      <c r="BJ7" s="65"/>
+      <c r="BK7" s="65"/>
+      <c r="BL7" s="62">
         <v>46028</v>
       </c>
-      <c r="BM7" s="74"/>
-      <c r="BN7" s="74"/>
-      <c r="BO7" s="75"/>
-      <c r="BP7" s="72" t="s">
+      <c r="BM7" s="62"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="63"/>
+      <c r="BP7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="BQ7" s="73"/>
-      <c r="BR7" s="73"/>
-      <c r="BS7" s="73"/>
-      <c r="BT7" s="74">
+      <c r="BQ7" s="65"/>
+      <c r="BR7" s="65"/>
+      <c r="BS7" s="65"/>
+      <c r="BT7" s="62">
         <v>46034</v>
       </c>
-      <c r="BU7" s="74"/>
-      <c r="BV7" s="74"/>
-      <c r="BW7" s="75"/>
-      <c r="BX7" s="72" t="s">
+      <c r="BU7" s="62"/>
+      <c r="BV7" s="62"/>
+      <c r="BW7" s="63"/>
+      <c r="BX7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="BY7" s="73"/>
-      <c r="BZ7" s="73"/>
-      <c r="CA7" s="73"/>
-      <c r="CB7" s="74">
+      <c r="BY7" s="65"/>
+      <c r="BZ7" s="65"/>
+      <c r="CA7" s="65"/>
+      <c r="CB7" s="62">
         <v>46035</v>
       </c>
-      <c r="CC7" s="74"/>
-      <c r="CD7" s="74"/>
-      <c r="CE7" s="75"/>
-      <c r="CF7" s="60" t="s">
+      <c r="CC7" s="62"/>
+      <c r="CD7" s="62"/>
+      <c r="CE7" s="63"/>
+      <c r="CF7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+    <row r="8" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
@@ -2634,9 +2631,9 @@
       <c r="CE8" s="7">
         <v>8</v>
       </c>
-      <c r="CF8" s="60"/>
+      <c r="CF8" s="71"/>
     </row>
-    <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
@@ -2644,10 +2641,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2660,16 +2657,16 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
-      <c r="T9" s="63" t="s">
+      <c r="T9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="76"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
@@ -2726,9 +2723,9 @@
       <c r="CC9" s="44"/>
       <c r="CD9" s="44"/>
       <c r="CE9" s="44"/>
-      <c r="CF9" s="60"/>
+      <c r="CF9" s="71"/>
     </row>
-    <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
@@ -2740,10 +2737,10 @@
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
@@ -2752,14 +2749,14 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="68"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="79"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
@@ -2816,9 +2813,9 @@
       <c r="CC10" s="44"/>
       <c r="CD10" s="44"/>
       <c r="CE10" s="44"/>
-      <c r="CF10" s="60"/>
+      <c r="CF10" s="71"/>
     </row>
-    <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
@@ -2842,14 +2839,14 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="79"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="44"/>
       <c r="AD11" s="44"/>
@@ -2906,9 +2903,9 @@
       <c r="CC11" s="44"/>
       <c r="CD11" s="44"/>
       <c r="CE11" s="44"/>
-      <c r="CF11" s="60"/>
+      <c r="CF11" s="71"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
@@ -2932,14 +2929,14 @@
       <c r="Q12" s="44"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="68"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="79"/>
       <c r="AB12" s="44"/>
       <c r="AC12" s="44"/>
       <c r="AD12" s="44"/>
@@ -2996,9 +2993,9 @@
       <c r="CC12" s="44"/>
       <c r="CD12" s="44"/>
       <c r="CE12" s="44"/>
-      <c r="CF12" s="60"/>
+      <c r="CF12" s="71"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>42</v>
       </c>
@@ -3022,14 +3019,14 @@
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="68"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="79"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
@@ -3086,9 +3083,9 @@
       <c r="CC13" s="44"/>
       <c r="CD13" s="44"/>
       <c r="CE13" s="44"/>
-      <c r="CF13" s="60"/>
+      <c r="CF13" s="71"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>43</v>
       </c>
@@ -3112,14 +3109,14 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="68"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="79"/>
       <c r="AB14" s="45" t="s">
         <v>39</v>
       </c>
@@ -3178,9 +3175,9 @@
       <c r="CC14" s="44"/>
       <c r="CD14" s="44"/>
       <c r="CE14" s="44"/>
-      <c r="CF14" s="60"/>
+      <c r="CF14" s="71"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>44</v>
       </c>
@@ -3204,14 +3201,14 @@
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="68"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="79"/>
       <c r="AB15" s="44"/>
       <c r="AC15" s="45" t="s">
         <v>39</v>
@@ -3278,9 +3275,9 @@
       <c r="CC15" s="44"/>
       <c r="CD15" s="44"/>
       <c r="CE15" s="44"/>
-      <c r="CF15" s="60"/>
+      <c r="CF15" s="71"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>34</v>
       </c>
@@ -3302,14 +3299,14 @@
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="68"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="79"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
@@ -3366,9 +3363,9 @@
       <c r="CC16" s="44"/>
       <c r="CD16" s="44"/>
       <c r="CE16" s="44"/>
-      <c r="CF16" s="60"/>
+      <c r="CF16" s="71"/>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>45</v>
       </c>
@@ -3390,14 +3387,14 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="68"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="79"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
@@ -3464,9 +3461,9 @@
       <c r="CC17" s="44"/>
       <c r="CD17" s="44"/>
       <c r="CE17" s="44"/>
-      <c r="CF17" s="60"/>
+      <c r="CF17" s="71"/>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>46</v>
       </c>
@@ -3488,14 +3485,14 @@
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="68"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="79"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
@@ -3558,9 +3555,9 @@
       <c r="CC18" s="44"/>
       <c r="CD18" s="44"/>
       <c r="CE18" s="44"/>
-      <c r="CF18" s="60"/>
+      <c r="CF18" s="71"/>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>47</v>
       </c>
@@ -3582,14 +3579,14 @@
       <c r="Q19" s="44"/>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="68"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="79"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
@@ -3654,9 +3651,9 @@
       <c r="CC19" s="44"/>
       <c r="CD19" s="44"/>
       <c r="CE19" s="44"/>
-      <c r="CF19" s="60"/>
+      <c r="CF19" s="71"/>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>59</v>
       </c>
@@ -3678,14 +3675,14 @@
       <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="68"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="79"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
@@ -3714,14 +3711,30 @@
       <c r="BA20" s="44"/>
       <c r="BB20" s="44"/>
       <c r="BC20" s="44"/>
-      <c r="BD20" s="49"/>
-      <c r="BE20" s="49"/>
-      <c r="BF20" s="49"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
+      <c r="BD20" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE20" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF20" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG20" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK20" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="BL20" s="44"/>
       <c r="BM20" s="44"/>
       <c r="BN20" s="44"/>
@@ -3742,9 +3755,9 @@
       <c r="CC20" s="44"/>
       <c r="CD20" s="44"/>
       <c r="CE20" s="44"/>
-      <c r="CF20" s="60"/>
+      <c r="CF20" s="71"/>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>35</v>
       </c>
@@ -3766,14 +3779,14 @@
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="68"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="79"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
@@ -3806,10 +3819,6 @@
       <c r="BE21" s="44"/>
       <c r="BF21" s="44"/>
       <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
       <c r="BM21" s="44"/>
       <c r="BN21" s="44"/>
@@ -3830,9 +3839,9 @@
       <c r="CC21" s="44"/>
       <c r="CD21" s="44"/>
       <c r="CE21" s="44"/>
-      <c r="CF21" s="60"/>
+      <c r="CF21" s="71"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>48</v>
       </c>
@@ -3854,14 +3863,14 @@
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="68"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="79"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
@@ -3922,9 +3931,9 @@
       <c r="CC22" s="44"/>
       <c r="CD22" s="44"/>
       <c r="CE22" s="44"/>
-      <c r="CF22" s="60"/>
+      <c r="CF22" s="71"/>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>49</v>
       </c>
@@ -3946,14 +3955,14 @@
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
       <c r="S23" s="44"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="68"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="79"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
@@ -4009,9 +4018,9 @@
       <c r="CC23" s="44"/>
       <c r="CD23" s="44"/>
       <c r="CE23" s="44"/>
-      <c r="CF23" s="60"/>
+      <c r="CF23" s="71"/>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>50</v>
       </c>
@@ -4033,14 +4042,14 @@
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
       <c r="S24" s="44"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="68"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="79"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
       <c r="AD24" s="44"/>
@@ -4097,9 +4106,9 @@
       <c r="CC24" s="44"/>
       <c r="CD24" s="44"/>
       <c r="CE24" s="44"/>
-      <c r="CF24" s="60"/>
+      <c r="CF24" s="71"/>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>51</v>
       </c>
@@ -4121,14 +4130,14 @@
       <c r="Q25" s="44"/>
       <c r="R25" s="44"/>
       <c r="S25" s="44"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="79"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
       <c r="AD25" s="44"/>
@@ -4187,9 +4196,9 @@
       <c r="CC25" s="44"/>
       <c r="CD25" s="44"/>
       <c r="CE25" s="44"/>
-      <c r="CF25" s="60"/>
+      <c r="CF25" s="71"/>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>52</v>
       </c>
@@ -4211,14 +4220,14 @@
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
       <c r="S26" s="44"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="68"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="79"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
       <c r="AD26" s="44"/>
@@ -4275,9 +4284,9 @@
       <c r="CC26" s="44"/>
       <c r="CD26" s="44"/>
       <c r="CE26" s="44"/>
-      <c r="CF26" s="60"/>
+      <c r="CF26" s="71"/>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>36</v>
       </c>
@@ -4299,14 +4308,14 @@
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="79"/>
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
       <c r="AD27" s="44"/>
@@ -4363,9 +4372,9 @@
       <c r="CC27" s="44"/>
       <c r="CD27" s="44"/>
       <c r="CE27" s="44"/>
-      <c r="CF27" s="60"/>
+      <c r="CF27" s="71"/>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>56</v>
       </c>
@@ -4387,14 +4396,14 @@
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="68"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="79"/>
       <c r="AB28" s="44"/>
       <c r="AC28" s="44"/>
       <c r="AD28" s="44"/>
@@ -4463,9 +4472,9 @@
       <c r="CC28" s="44"/>
       <c r="CD28" s="44"/>
       <c r="CE28" s="44"/>
-      <c r="CF28" s="60"/>
+      <c r="CF28" s="71"/>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>60</v>
       </c>
@@ -4487,14 +4496,14 @@
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="68"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="79"/>
       <c r="AB29" s="44"/>
       <c r="AC29" s="44"/>
       <c r="AD29" s="44"/>
@@ -4536,8 +4545,12 @@
       <c r="AX29" s="44"/>
       <c r="AY29" s="44"/>
       <c r="AZ29" s="44"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="45"/>
+      <c r="BA29" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB29" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="BC29" s="44"/>
       <c r="BD29" s="44"/>
       <c r="BE29" s="44"/>
@@ -4567,10 +4580,10 @@
       <c r="CC29" s="44"/>
       <c r="CD29" s="44"/>
       <c r="CE29" s="44"/>
-      <c r="CF29" s="60"/>
+      <c r="CF29" s="71"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+    <row r="30" spans="1:84" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="16"/>
@@ -4591,14 +4604,14 @@
       <c r="Q30" s="44"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="68"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="79"/>
       <c r="AB30" s="44"/>
       <c r="AC30" s="44"/>
       <c r="AD30" s="44"/>
@@ -4626,15 +4639,33 @@
       <c r="AZ30" s="44"/>
       <c r="BA30" s="44"/>
       <c r="BB30" s="44"/>
-      <c r="BC30" s="45"/>
-      <c r="BD30" s="45"/>
-      <c r="BE30" s="45"/>
-      <c r="BF30" s="45"/>
-      <c r="BG30" s="45"/>
-      <c r="BH30" s="44"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="44"/>
-      <c r="BK30" s="44"/>
+      <c r="BC30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK30" s="44" t="s">
+        <v>57</v>
+      </c>
       <c r="BL30" s="44"/>
       <c r="BM30" s="44"/>
       <c r="BN30" s="44"/>
@@ -4655,10 +4686,10 @@
       <c r="CC30" s="44"/>
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
-      <c r="CF30" s="60"/>
+      <c r="CF30" s="71"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
+    <row r="31" spans="1:84" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="16"/>
@@ -4679,14 +4710,14 @@
       <c r="Q31" s="44"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="68"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="79"/>
       <c r="AB31" s="44"/>
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
@@ -4716,9 +4747,15 @@
       <c r="BB31" s="44"/>
       <c r="BC31" s="44"/>
       <c r="BD31" s="44"/>
-      <c r="BE31" s="46"/>
-      <c r="BF31" s="46"/>
-      <c r="BG31" s="46"/>
+      <c r="BE31" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF31" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG31" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="BH31" s="44"/>
       <c r="BI31" s="44"/>
       <c r="BJ31" s="44"/>
@@ -4743,9 +4780,9 @@
       <c r="CC31" s="44"/>
       <c r="CD31" s="44"/>
       <c r="CE31" s="44"/>
-      <c r="CF31" s="60"/>
+      <c r="CF31" s="71"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>53</v>
       </c>
@@ -4767,14 +4804,14 @@
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
       <c r="S32" s="44"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="68"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="79"/>
       <c r="AB32" s="44"/>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -4800,10 +4837,18 @@
       <c r="AX32" s="44"/>
       <c r="AY32" s="44"/>
       <c r="AZ32" s="44"/>
-      <c r="BA32" s="46"/>
-      <c r="BB32" s="46"/>
-      <c r="BC32" s="46"/>
-      <c r="BD32" s="46"/>
+      <c r="BA32" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB32" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC32" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD32" s="46" t="s">
+        <v>41</v>
+      </c>
       <c r="BE32" s="3"/>
       <c r="BF32" s="44"/>
       <c r="BG32" s="44"/>
@@ -4831,9 +4876,9 @@
       <c r="CC32" s="44"/>
       <c r="CD32" s="44"/>
       <c r="CE32" s="44"/>
-      <c r="CF32" s="60"/>
+      <c r="CF32" s="71"/>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>55</v>
       </c>
@@ -4855,14 +4900,14 @@
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="68"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="79"/>
       <c r="AB33" s="44"/>
       <c r="AC33" s="44"/>
       <c r="AD33" s="44"/>
@@ -4919,9 +4964,9 @@
       <c r="CC33" s="44"/>
       <c r="CD33" s="44"/>
       <c r="CE33" s="44"/>
-      <c r="CF33" s="60"/>
+      <c r="CF33" s="71"/>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>21</v>
       </c>
@@ -4945,14 +4990,14 @@
       <c r="Q34" s="44"/>
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="68"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="79"/>
       <c r="AB34" s="44"/>
       <c r="AC34" s="44"/>
       <c r="AD34" s="44"/>
@@ -5009,9 +5054,9 @@
       <c r="CC34" s="44"/>
       <c r="CD34" s="44"/>
       <c r="CE34" s="44"/>
-      <c r="CF34" s="60"/>
+      <c r="CF34" s="71"/>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>22</v>
       </c>
@@ -5043,14 +5088,14 @@
       <c r="Q35" s="44"/>
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="68"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="79"/>
       <c r="AB35" s="44"/>
       <c r="AC35" s="44"/>
       <c r="AD35" s="44"/>
@@ -5107,9 +5152,9 @@
       <c r="CC35" s="44"/>
       <c r="CD35" s="44"/>
       <c r="CE35" s="44"/>
-      <c r="CF35" s="60"/>
+      <c r="CF35" s="71"/>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>23</v>
       </c>
@@ -5141,14 +5186,14 @@
       <c r="Q36" s="44"/>
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="68"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="79"/>
       <c r="AB36" s="44"/>
       <c r="AC36" s="44"/>
       <c r="AD36" s="44"/>
@@ -5205,9 +5250,9 @@
       <c r="CC36" s="44"/>
       <c r="CD36" s="44"/>
       <c r="CE36" s="44"/>
-      <c r="CF36" s="60"/>
+      <c r="CF36" s="71"/>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>24</v>
       </c>
@@ -5239,14 +5284,14 @@
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-      <c r="Y37" s="67"/>
-      <c r="Z37" s="67"/>
-      <c r="AA37" s="68"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="79"/>
       <c r="AB37" s="46" t="s">
         <v>39</v>
       </c>
@@ -5307,9 +5352,9 @@
       <c r="CC37" s="44"/>
       <c r="CD37" s="44"/>
       <c r="CE37" s="44"/>
-      <c r="CF37" s="60"/>
+      <c r="CF37" s="71"/>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>25</v>
       </c>
@@ -5333,14 +5378,14 @@
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="68"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="79"/>
       <c r="AB38" s="47"/>
       <c r="AC38" s="44"/>
       <c r="AD38" s="44"/>
@@ -5397,9 +5442,9 @@
       <c r="CC38" s="44"/>
       <c r="CD38" s="44"/>
       <c r="CE38" s="44"/>
-      <c r="CF38" s="60"/>
+      <c r="CF38" s="71"/>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>26</v>
       </c>
@@ -5423,14 +5468,14 @@
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="68"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="79"/>
       <c r="AB39" s="44"/>
       <c r="AC39" s="44"/>
       <c r="AD39" s="46" t="s">
@@ -5459,10 +5504,18 @@
       <c r="AW39" s="44"/>
       <c r="AX39" s="44"/>
       <c r="AY39" s="44"/>
-      <c r="AZ39" s="49"/>
-      <c r="BA39" s="49"/>
-      <c r="BB39" s="49"/>
-      <c r="BC39" s="49"/>
+      <c r="AZ39" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA39" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB39" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC39" s="49" t="s">
+        <v>40</v>
+      </c>
       <c r="BD39" s="44"/>
       <c r="BE39" s="44"/>
       <c r="BF39" s="44"/>
@@ -5491,9 +5544,9 @@
       <c r="CC39" s="44"/>
       <c r="CD39" s="44"/>
       <c r="CE39" s="44"/>
-      <c r="CF39" s="60"/>
+      <c r="CF39" s="71"/>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>27</v>
       </c>
@@ -5541,14 +5594,14 @@
       <c r="Q40" s="44"/>
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="68"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="79"/>
       <c r="AB40" s="50" t="s">
         <v>39</v>
       </c>
@@ -5589,10 +5642,18 @@
       <c r="BE40" s="50"/>
       <c r="BF40" s="50"/>
       <c r="BG40" s="50"/>
-      <c r="BH40" s="50"/>
-      <c r="BI40" s="50"/>
-      <c r="BJ40" s="50"/>
-      <c r="BK40" s="50"/>
+      <c r="BH40" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI40" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ40" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK40" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="BL40" s="44"/>
       <c r="BM40" s="44"/>
       <c r="BN40" s="44"/>
@@ -5613,9 +5674,9 @@
       <c r="CC40" s="44"/>
       <c r="CD40" s="44"/>
       <c r="CE40" s="44"/>
-      <c r="CF40" s="60"/>
+      <c r="CF40" s="71"/>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>28</v>
       </c>
@@ -5639,14 +5700,14 @@
       <c r="Q41" s="44"/>
       <c r="R41" s="44"/>
       <c r="S41" s="44"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="68"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="79"/>
       <c r="AB41" s="44"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="34"/>
@@ -5705,9 +5766,9 @@
       <c r="CC41" s="44"/>
       <c r="CD41" s="44"/>
       <c r="CE41" s="44"/>
-      <c r="CF41" s="60"/>
+      <c r="CF41" s="71"/>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:84" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>32</v>
       </c>
@@ -5729,14 +5790,14 @@
       <c r="Q42" s="44"/>
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="68"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="79"/>
       <c r="AB42" s="44"/>
       <c r="AC42" s="44"/>
       <c r="AD42" s="44"/>
@@ -5793,9 +5854,9 @@
       <c r="CC42" s="44"/>
       <c r="CD42" s="44"/>
       <c r="CE42" s="44"/>
-      <c r="CF42" s="60"/>
+      <c r="CF42" s="71"/>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>33</v>
       </c>
@@ -5817,14 +5878,14 @@
       <c r="Q43" s="44"/>
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="68"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="79"/>
       <c r="AB43" s="44"/>
       <c r="AC43" s="44"/>
       <c r="AD43" s="44"/>
@@ -5881,9 +5942,9 @@
       <c r="CC43" s="44"/>
       <c r="CD43" s="44"/>
       <c r="CE43" s="44"/>
-      <c r="CF43" s="60"/>
+      <c r="CF43" s="71"/>
     </row>
-    <row r="44" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:84" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="17"/>
       <c r="C44" s="11"/>
@@ -5903,14 +5964,14 @@
       <c r="Q44" s="44"/>
       <c r="R44" s="44"/>
       <c r="S44" s="44"/>
-      <c r="T44" s="69"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="71"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="82"/>
       <c r="AB44" s="12"/>
       <c r="AC44" s="13"/>
       <c r="AD44" s="13"/>
@@ -5967,105 +6028,109 @@
       <c r="CC44" s="13"/>
       <c r="CD44" s="13"/>
       <c r="CE44" s="14"/>
-      <c r="CF44" s="60"/>
+      <c r="CF44" s="71"/>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A45" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
-      <c r="AI45" s="59"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="59"/>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="59"/>
-      <c r="AN45" s="59"/>
-      <c r="AO45" s="59"/>
-      <c r="AP45" s="59"/>
-      <c r="AQ45" s="59"/>
-      <c r="AR45" s="59"/>
-      <c r="AS45" s="59"/>
-      <c r="AT45" s="59"/>
-      <c r="AU45" s="59"/>
-      <c r="AV45" s="59"/>
-      <c r="AW45" s="59"/>
-      <c r="AX45" s="59"/>
-      <c r="AY45" s="59"/>
-      <c r="AZ45" s="59"/>
-      <c r="BA45" s="59"/>
-      <c r="BB45" s="59"/>
-      <c r="BC45" s="59"/>
-      <c r="BD45" s="59"/>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="59"/>
-      <c r="BJ45" s="59"/>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="59"/>
-      <c r="BM45" s="59"/>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="59"/>
-      <c r="BP45" s="59"/>
-      <c r="BQ45" s="59"/>
-      <c r="BR45" s="59"/>
-      <c r="BS45" s="59"/>
-      <c r="BT45" s="59"/>
-      <c r="BU45" s="59"/>
-      <c r="BV45" s="59"/>
-      <c r="BW45" s="59"/>
-      <c r="BX45" s="59"/>
-      <c r="BY45" s="59"/>
-      <c r="BZ45" s="59"/>
-      <c r="CA45" s="59"/>
-      <c r="CB45" s="59"/>
-      <c r="CC45" s="59"/>
-      <c r="CD45" s="59"/>
-      <c r="CE45" s="59"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="70"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="70"/>
+      <c r="AT45" s="70"/>
+      <c r="AU45" s="70"/>
+      <c r="AV45" s="70"/>
+      <c r="AW45" s="70"/>
+      <c r="AX45" s="70"/>
+      <c r="AY45" s="70"/>
+      <c r="AZ45" s="70"/>
+      <c r="BA45" s="70"/>
+      <c r="BB45" s="70"/>
+      <c r="BC45" s="70"/>
+      <c r="BD45" s="70"/>
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="70"/>
+      <c r="BJ45" s="70"/>
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="70"/>
+      <c r="BM45" s="70"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="70"/>
+      <c r="BP45" s="70"/>
+      <c r="BQ45" s="70"/>
+      <c r="BR45" s="70"/>
+      <c r="BS45" s="70"/>
+      <c r="BT45" s="70"/>
+      <c r="BU45" s="70"/>
+      <c r="BV45" s="70"/>
+      <c r="BW45" s="70"/>
+      <c r="BX45" s="70"/>
+      <c r="BY45" s="70"/>
+      <c r="BZ45" s="70"/>
+      <c r="CA45" s="70"/>
+      <c r="CB45" s="70"/>
+      <c r="CC45" s="70"/>
+      <c r="CD45" s="70"/>
+      <c r="CE45" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D5:AQ6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A45:CE45"/>
+    <mergeCell ref="CF7:CF44"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="T9:AA44"/>
+    <mergeCell ref="AZ7:BC7"/>
+    <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="BH7:BK7"/>
+    <mergeCell ref="BL7:BO7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="AR5:CE6"/>
     <mergeCell ref="AJ7:AM7"/>
     <mergeCell ref="AN7:AQ7"/>
@@ -6080,18 +6145,14 @@
     <mergeCell ref="BP7:BS7"/>
     <mergeCell ref="BX7:CA7"/>
     <mergeCell ref="CB7:CE7"/>
-    <mergeCell ref="A45:CE45"/>
-    <mergeCell ref="CF7:CF44"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="T9:AA44"/>
-    <mergeCell ref="AZ7:BC7"/>
-    <mergeCell ref="BD7:BG7"/>
-    <mergeCell ref="BH7:BK7"/>
-    <mergeCell ref="BL7:BO7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D5:AQ6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B9:B44">
@@ -6333,15 +6394,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -6350,6 +6402,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6372,14 +6433,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6394,4 +6447,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>